--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -22,25 +22,25 @@
     <t>Opt Portfolio with View</t>
   </si>
   <si>
-    <t>European Banks</t>
-  </si>
-  <si>
-    <t>EU High Yield Bonds</t>
-  </si>
-  <si>
-    <t>Emerging Asia Equity</t>
-  </si>
-  <si>
-    <t>Chinese Equity</t>
-  </si>
-  <si>
-    <t>Chinese Bonds</t>
-  </si>
-  <si>
     <t>Cash</t>
   </si>
   <si>
-    <t>1-5 years GILTS</t>
+    <t>US Equities</t>
+  </si>
+  <si>
+    <t>European Equities</t>
+  </si>
+  <si>
+    <t>EU High Yield</t>
+  </si>
+  <si>
+    <t>EU Corporate</t>
+  </si>
+  <si>
+    <t>Greek Gov</t>
+  </si>
+  <si>
+    <t>Euro Gov</t>
   </si>
 </sst>
 </file>

--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -417,10 +417,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.268573200126422</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0.4721256832270345</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -428,7 +428,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.008729922144078566</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.007947112672031102</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -450,7 +450,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.1748846096130577</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -461,10 +461,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.2629499692222527</v>
+        <v>3.996802888650564e-15</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>6.38378239159465e-16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -472,10 +472,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.00806784534265083</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>2.473596832923009e-18</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -483,10 +483,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.2688473408795071</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.5278743167729688</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -417,10 +417,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.01762491992218912</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2.55351295663786e-15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -428,7 +428,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.059250704130094</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.007414896830231518</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -453,7 +453,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>7.776741660040339e-16</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -461,10 +461,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>3.996802888650564e-15</v>
+        <v>0.8841373217937964</v>
       </c>
       <c r="C6">
-        <v>6.38378239159465e-16</v>
+        <v>0.9999999999999979</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -472,10 +472,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.03157215732368897</v>
       </c>
       <c r="C7">
-        <v>2.473596832923009e-18</v>
+        <v>1.419947538024181e-15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -483,7 +483,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1.387778780781446e-17</v>
       </c>
       <c r="C8">
         <v>0</v>

--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user2\Documents\Python_files\Black_Litterman\Iolcus-Investments\Main\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADA285D-83BC-4D9C-8FCB-F8EBED72AAD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Opt Portfolio</t>
   </si>
@@ -22,32 +28,50 @@
     <t>Opt Portfolio with View</t>
   </si>
   <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>US Equities</t>
-  </si>
-  <si>
-    <t>European Equities</t>
-  </si>
-  <si>
-    <t>EU High Yield</t>
-  </si>
-  <si>
-    <t>EU Corporate</t>
-  </si>
-  <si>
-    <t>Greek Gov</t>
-  </si>
-  <si>
-    <t>Euro Gov</t>
+    <t>Emerging Mkts</t>
+  </si>
+  <si>
+    <t>US Treasuries</t>
+  </si>
+  <si>
+    <t>High Yield</t>
+  </si>
+  <si>
+    <t>Int'l Bonds</t>
+  </si>
+  <si>
+    <t>Bonds - Agg</t>
+  </si>
+  <si>
+    <t>Russ 1K Gro</t>
+  </si>
+  <si>
+    <t>GOLD</t>
+  </si>
+  <si>
+    <t>Commodities</t>
+  </si>
+  <si>
+    <t>Small Stocks</t>
+  </si>
+  <si>
+    <t>Russ 1K Val</t>
+  </si>
+  <si>
+    <t>Real Estate</t>
+  </si>
+  <si>
+    <t>S&amp;P 500</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,6 +81,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -96,20 +127,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -156,7 +198,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -188,9 +230,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -222,6 +282,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -397,14 +475,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -412,84 +497,140 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>0.01762491992218912</v>
+      <c r="B2" s="2">
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>2.55351295663786e-15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>4.8813380504120236E-19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>0.059250704130094</v>
+      <c r="B3" s="2">
+        <v>0.36779723959161792</v>
       </c>
       <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>0.45526040389682071</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>0.007414896830231518</v>
+      <c r="B4" s="2">
+        <v>2.992458714920683E-2</v>
       </c>
       <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>6.8091718501921236E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
+        <v>0.12347964605337609</v>
+      </c>
+      <c r="C5">
         <v>0</v>
       </c>
-      <c r="C5">
-        <v>7.776741660040339e-16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>0.8841373217937964</v>
+      <c r="B6" s="2">
+        <v>0.29782338828919219</v>
       </c>
       <c r="C6">
-        <v>0.9999999999999979</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.36607090932068009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>0.03157215732368897</v>
+      <c r="B7" s="2">
+        <v>1.0904137530296589E-2</v>
       </c>
       <c r="C7">
-        <v>1.419947538024181e-15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>9.0562902031226054E-19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>1.387778780781446e-17</v>
+      <c r="B8" s="2">
+        <v>0</v>
       </c>
       <c r="C8">
+        <v>2.6249614029891109E-17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <v>4.5143928922989081E-2</v>
+      </c>
+      <c r="C9">
+        <v>5.1178474679940397E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
+        <v>4.8843318133160438E-2</v>
+      </c>
+      <c r="C10">
+        <v>2.3834511636659669E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
+        <v>4.5091210520712383E-2</v>
+      </c>
+      <c r="C11">
+        <v>3.556398196397785E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2">
         <v>0</v>
+      </c>
+      <c r="C12">
+        <v>4.5622682215306743E-19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3.0992543809448578E-2</v>
+      </c>
+      <c r="C13">
+        <v>2.2807684260096598E-19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user2\Documents\Python_files\Black_Litterman\Iolcus-Investments\Main\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADA285D-83BC-4D9C-8FCB-F8EBED72AAD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -67,11 +61,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,13 +72,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -127,31 +111,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -198,7 +171,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -230,27 +203,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -282,24 +237,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -475,21 +412,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,140 +427,139 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.8813380504120236E-19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.881338050412024e-19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.36779723959161792</v>
+      <c r="B3">
+        <v>0.3677972395916179</v>
       </c>
       <c r="C3">
-        <v>0.45526040389682071</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4552604038968207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
-        <v>2.992458714920683E-2</v>
+      <c r="B4">
+        <v>0.02992458714920683</v>
       </c>
       <c r="C4">
-        <v>6.8091718501921236E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.06809171850192124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
-        <v>0.12347964605337609</v>
+      <c r="B5">
+        <v>0.1234796460533761</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
-        <v>0.29782338828919219</v>
+      <c r="B6">
+        <v>0.2978233882891922</v>
       </c>
       <c r="C6">
-        <v>0.36607090932068009</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3660709093206801</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
-        <v>1.0904137530296589E-2</v>
+      <c r="B7">
+        <v>0.01090413753029659</v>
       </c>
       <c r="C7">
-        <v>9.0562902031226054E-19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9.056290203122605e-19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.6249614029891109E-17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.624961402989111e-17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2">
-        <v>4.5143928922989081E-2</v>
+      <c r="B9">
+        <v>0.04514392892298908</v>
       </c>
       <c r="C9">
-        <v>5.1178474679940397E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.0511784746799404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2">
-        <v>4.8843318133160438E-2</v>
+      <c r="B10">
+        <v>0.04884331813316044</v>
       </c>
       <c r="C10">
-        <v>2.3834511636659669E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.02383451163665967</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2">
-        <v>4.5091210520712383E-2</v>
+      <c r="B11">
+        <v>0.04509121052071238</v>
       </c>
       <c r="C11">
-        <v>3.556398196397785E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.03556398196397785</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.5622682215306743E-19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.562268221530674e-19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2">
-        <v>3.0992543809448578E-2</v>
+      <c r="B13">
+        <v>0.03099254380944858</v>
       </c>
       <c r="C13">
-        <v>2.2807684260096598E-19</v>
+        <v>2.28076842600966e-19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -435,7 +435,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.881338050412024e-19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -446,7 +446,7 @@
         <v>0.3677972395916179</v>
       </c>
       <c r="C3">
-        <v>0.4552604038968207</v>
+        <v>0.3677972307464058</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -457,7 +457,7 @@
         <v>0.02992458714920683</v>
       </c>
       <c r="C4">
-        <v>0.06809171850192124</v>
+        <v>0.02992461252661037</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -468,7 +468,7 @@
         <v>0.1234796460533761</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.1234796466906095</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -479,7 +479,7 @@
         <v>0.2978233882891922</v>
       </c>
       <c r="C6">
-        <v>0.3660709093206801</v>
+        <v>0.2978233793571007</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -490,7 +490,7 @@
         <v>0.01090413753029659</v>
       </c>
       <c r="C7">
-        <v>9.056290203122605e-19</v>
+        <v>0.01090413015614074</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.624961402989111e-17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -512,7 +512,7 @@
         <v>0.04514392892298908</v>
       </c>
       <c r="C9">
-        <v>0.0511784746799404</v>
+        <v>0.04514393665358528</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -523,7 +523,7 @@
         <v>0.04884331813316044</v>
       </c>
       <c r="C10">
-        <v>0.02383451163665967</v>
+        <v>0.04884331010259938</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -534,7 +534,7 @@
         <v>0.04509121052071238</v>
       </c>
       <c r="C11">
-        <v>0.03556398196397785</v>
+        <v>0.04509121361603211</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.562268221530674e-19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -556,7 +556,7 @@
         <v>0.03099254380944858</v>
       </c>
       <c r="C13">
-        <v>2.28076842600966e-19</v>
+        <v>0.03099254015091614</v>
       </c>
     </row>
   </sheetData>

--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user2\Documents\Python_files\Black_Litterman\Iolcus-Investments\Main\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E3C0DB-B9D1-4AF3-BA12-04E52B54D076}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Opt Portfolio</t>
   </si>
@@ -56,13 +62,16 @@
   </si>
   <si>
     <t>S&amp;P 500</t>
+  </si>
+  <si>
+    <t>Implied weights are same with Black Litterman weights since no view has been supplied yet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +134,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -171,7 +188,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -203,9 +220,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -237,6 +272,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -412,14 +465,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -427,7 +482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -438,62 +493,62 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.3677972395916179</v>
+        <v>0.36779723959161792</v>
       </c>
       <c r="C3">
         <v>0.3677972307464058</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.02992458714920683</v>
+        <v>2.992458714920683E-2</v>
       </c>
       <c r="C4">
-        <v>0.02992461252661037</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>2.992461252661037E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.1234796460533761</v>
+        <v>0.12347964605337609</v>
       </c>
       <c r="C5">
         <v>0.1234796466906095</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.2978233882891922</v>
+        <v>0.29782338828919219</v>
       </c>
       <c r="C6">
-        <v>0.2978233793571007</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.29782337935710068</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.01090413753029659</v>
+        <v>1.0904137530296589E-2</v>
       </c>
       <c r="C7">
-        <v>0.01090413015614074</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>1.0904130156140741E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -504,40 +559,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.04514392892298908</v>
+        <v>4.5143928922989081E-2</v>
       </c>
       <c r="C9">
-        <v>0.04514393665358528</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>4.5143936653585279E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.04884331813316044</v>
+        <v>4.8843318133160438E-2</v>
       </c>
       <c r="C10">
-        <v>0.04884331010259938</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>4.8843310102599381E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.04509121052071238</v>
+        <v>4.5091210520712383E-2</v>
       </c>
       <c r="C11">
-        <v>0.04509121361603211</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>4.5091213616032112E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -548,15 +603,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.03099254380944858</v>
+        <v>3.0992543809448578E-2</v>
       </c>
       <c r="C13">
-        <v>0.03099254015091614</v>
+        <v>3.099254015091614E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user2\Documents\Python_files\Black_Litterman\Iolcus-Investments\Main\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E3C0DB-B9D1-4AF3-BA12-04E52B54D076}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Opt Portfolio</t>
   </si>
@@ -62,16 +56,13 @@
   </si>
   <si>
     <t>S&amp;P 500</t>
-  </si>
-  <si>
-    <t>Implied weights are same with Black Litterman weights since no view has been supplied yet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,14 +125,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -188,7 +171,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -220,27 +203,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -272,24 +237,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -465,16 +412,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,7 +427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -493,62 +438,62 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.36779723959161792</v>
+        <v>0.3677972395916179</v>
       </c>
       <c r="C3">
         <v>0.3677972307464058</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>2.992458714920683E-2</v>
+        <v>0.02992458714920683</v>
       </c>
       <c r="C4">
-        <v>2.992461252661037E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.02992461252661037</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.12347964605337609</v>
+        <v>0.1234796460533761</v>
       </c>
       <c r="C5">
         <v>0.1234796466906095</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.29782338828919219</v>
+        <v>0.2978233882891922</v>
       </c>
       <c r="C6">
-        <v>0.29782337935710068</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2978233793571007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>1.0904137530296589E-2</v>
+        <v>0.01090413753029659</v>
       </c>
       <c r="C7">
-        <v>1.0904130156140741E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.01090413015614074</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -559,40 +504,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>4.5143928922989081E-2</v>
+        <v>0.04514392892298908</v>
       </c>
       <c r="C9">
-        <v>4.5143936653585279E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.04514393665358528</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10">
-        <v>4.8843318133160438E-2</v>
+        <v>0.04884331813316044</v>
       </c>
       <c r="C10">
-        <v>4.8843310102599381E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.04884331010259938</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11">
-        <v>4.5091210520712383E-2</v>
+        <v>0.04509121052071238</v>
       </c>
       <c r="C11">
-        <v>4.5091213616032112E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.04509121361603211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -603,20 +548,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B13">
-        <v>3.0992543809448578E-2</v>
+        <v>0.03099254380944858</v>
       </c>
       <c r="C13">
-        <v>3.099254015091614E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>14</v>
+        <v>0.03099254015091614</v>
       </c>
     </row>
   </sheetData>

--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -435,7 +435,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2.092811143995738e-18</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -446,7 +446,7 @@
         <v>0.3677972395916179</v>
       </c>
       <c r="C3">
-        <v>0.3677972307464058</v>
+        <v>0.8422882724052781</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -457,7 +457,7 @@
         <v>0.02992458714920683</v>
       </c>
       <c r="C4">
-        <v>0.02992461252661037</v>
+        <v>3.547663963132689e-05</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -468,7 +468,7 @@
         <v>0.1234796460533761</v>
       </c>
       <c r="C5">
-        <v>0.1234796466906095</v>
+        <v>9.776561004032234e-19</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -479,7 +479,7 @@
         <v>0.2978233882891922</v>
       </c>
       <c r="C6">
-        <v>0.2978233793571007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -490,7 +490,7 @@
         <v>0.01090413753029659</v>
       </c>
       <c r="C7">
-        <v>0.01090413015614074</v>
+        <v>3.642974848100913e-18</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>3.177071318118062e-18</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -512,7 +512,7 @@
         <v>0.04514392892298908</v>
       </c>
       <c r="C9">
-        <v>0.04514393665358528</v>
+        <v>0.00219714938765768</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -523,7 +523,7 @@
         <v>0.04884331813316044</v>
       </c>
       <c r="C10">
-        <v>0.04884331010259938</v>
+        <v>0.006090650936498306</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -534,7 +534,7 @@
         <v>0.04509121052071238</v>
       </c>
       <c r="C11">
-        <v>0.04509121361603211</v>
+        <v>0.0003074966821064281</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>5.283386679673052e-21</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -556,7 +556,7 @@
         <v>0.03099254380944858</v>
       </c>
       <c r="C13">
-        <v>0.03099254015091614</v>
+        <v>0.149080953948828</v>
       </c>
     </row>
   </sheetData>

--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -435,7 +435,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.092811143995738e-18</v>
+        <v>5.310557155020105e-18</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -446,7 +446,7 @@
         <v>0.3677972395916179</v>
       </c>
       <c r="C3">
-        <v>0.8422882724052781</v>
+        <v>0.4223910921055155</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -457,7 +457,7 @@
         <v>0.02992458714920683</v>
       </c>
       <c r="C4">
-        <v>3.547663963132689e-05</v>
+        <v>1.647883696604348e-17</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -468,7 +468,7 @@
         <v>0.1234796460533761</v>
       </c>
       <c r="C5">
-        <v>9.776561004032234e-19</v>
+        <v>2.2026897714741e-17</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -479,7 +479,7 @@
         <v>0.2978233882891922</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.3266462031418655</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -490,7 +490,7 @@
         <v>0.01090413753029659</v>
       </c>
       <c r="C7">
-        <v>3.642974848100913e-18</v>
+        <v>8.476572151579813e-19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.177071318118062e-18</v>
+        <v>5.424406555728697e-18</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -512,7 +512,7 @@
         <v>0.04514392892298908</v>
       </c>
       <c r="C9">
-        <v>0.00219714938765768</v>
+        <v>0.02173475375986822</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -523,7 +523,7 @@
         <v>0.04884331813316044</v>
       </c>
       <c r="C10">
-        <v>0.006090650936498306</v>
+        <v>1.96004155244827e-18</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -534,7 +534,7 @@
         <v>0.04509121052071238</v>
       </c>
       <c r="C11">
-        <v>0.0003074966821064281</v>
+        <v>6.794645933682366e-18</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.283386679673052e-21</v>
+        <v>2.0495369838691e-18</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -556,7 +556,7 @@
         <v>0.03099254380944858</v>
       </c>
       <c r="C13">
-        <v>0.149080953948828</v>
+        <v>0.2292279509927508</v>
       </c>
     </row>
   </sheetData>

--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -435,7 +435,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.310557155020105e-18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -446,7 +446,7 @@
         <v>0.3677972395916179</v>
       </c>
       <c r="C3">
-        <v>0.4223910921055155</v>
+        <v>0.3677972307464058</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -457,7 +457,7 @@
         <v>0.02992458714920683</v>
       </c>
       <c r="C4">
-        <v>1.647883696604348e-17</v>
+        <v>0.02992461252661037</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -468,7 +468,7 @@
         <v>0.1234796460533761</v>
       </c>
       <c r="C5">
-        <v>2.2026897714741e-17</v>
+        <v>0.1234796466906095</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -479,7 +479,7 @@
         <v>0.2978233882891922</v>
       </c>
       <c r="C6">
-        <v>0.3266462031418655</v>
+        <v>0.2978233793571007</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -490,7 +490,7 @@
         <v>0.01090413753029659</v>
       </c>
       <c r="C7">
-        <v>8.476572151579813e-19</v>
+        <v>0.01090413015614074</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.424406555728697e-18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -512,7 +512,7 @@
         <v>0.04514392892298908</v>
       </c>
       <c r="C9">
-        <v>0.02173475375986822</v>
+        <v>0.04514393665358528</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -523,7 +523,7 @@
         <v>0.04884331813316044</v>
       </c>
       <c r="C10">
-        <v>1.96004155244827e-18</v>
+        <v>0.04884331010259938</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -534,7 +534,7 @@
         <v>0.04509121052071238</v>
       </c>
       <c r="C11">
-        <v>6.794645933682366e-18</v>
+        <v>0.04509121361603211</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>2.0495369838691e-18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -556,7 +556,7 @@
         <v>0.03099254380944858</v>
       </c>
       <c r="C13">
-        <v>0.2292279509927508</v>
+        <v>0.03099254015091614</v>
       </c>
     </row>
   </sheetData>

--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -435,7 +435,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2.330246048421937e-19</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -446,7 +446,7 @@
         <v>0.3677972395916179</v>
       </c>
       <c r="C3">
-        <v>0.3677972307464058</v>
+        <v>0.4458327234947346</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -457,7 +457,7 @@
         <v>0.02992458714920683</v>
       </c>
       <c r="C4">
-        <v>0.02992461252661037</v>
+        <v>0.06357623681831188</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -468,7 +468,7 @@
         <v>0.1234796460533761</v>
       </c>
       <c r="C5">
-        <v>0.1234796466906095</v>
+        <v>8.807695185509702e-18</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -479,7 +479,7 @@
         <v>0.2978233882891922</v>
       </c>
       <c r="C6">
-        <v>0.2978233793571007</v>
+        <v>0.3486403815655779</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -490,7 +490,7 @@
         <v>0.01090413753029659</v>
       </c>
       <c r="C7">
-        <v>0.01090413015614074</v>
+        <v>3.661815218948759e-19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>9.653876486319454e-19</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -512,7 +512,7 @@
         <v>0.04514392892298908</v>
       </c>
       <c r="C9">
-        <v>0.04514393665358528</v>
+        <v>0.05261526521361033</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -523,7 +523,7 @@
         <v>0.04884331813316044</v>
       </c>
       <c r="C10">
-        <v>0.04884331010259938</v>
+        <v>0.02203726983585222</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -534,7 +534,7 @@
         <v>0.04509121052071238</v>
       </c>
       <c r="C11">
-        <v>0.04509121361603211</v>
+        <v>0.05890727244953593</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -556,7 +556,7 @@
         <v>0.03099254380944858</v>
       </c>
       <c r="C13">
-        <v>0.03099254015091614</v>
+        <v>0.008390850622377223</v>
       </c>
     </row>
   </sheetData>

--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -435,7 +435,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.330246048421937e-19</v>
+        <v>0.1049893408696204</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -446,7 +446,7 @@
         <v>0.3677972395916179</v>
       </c>
       <c r="C3">
-        <v>0.4458327234947346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -457,7 +457,7 @@
         <v>0.02992458714920683</v>
       </c>
       <c r="C4">
-        <v>0.06357623681831188</v>
+        <v>0.1618706169496776</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -468,7 +468,7 @@
         <v>0.1234796460533761</v>
       </c>
       <c r="C5">
-        <v>8.807695185509702e-18</v>
+        <v>3.582521641092274e-17</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -479,7 +479,7 @@
         <v>0.2978233882891922</v>
       </c>
       <c r="C6">
-        <v>0.3486403815655779</v>
+        <v>0.7325499012809557</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -490,7 +490,7 @@
         <v>0.01090413753029659</v>
       </c>
       <c r="C7">
-        <v>3.661815218948759e-19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.653876486319454e-19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -512,7 +512,7 @@
         <v>0.04514392892298908</v>
       </c>
       <c r="C9">
-        <v>0.05261526521361033</v>
+        <v>0.0004661450251538002</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -523,7 +523,7 @@
         <v>0.04884331813316044</v>
       </c>
       <c r="C10">
-        <v>0.02203726983585222</v>
+        <v>4.155213597677616e-17</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -534,7 +534,7 @@
         <v>0.04509121052071238</v>
       </c>
       <c r="C11">
-        <v>0.05890727244953593</v>
+        <v>0.0001239958745925973</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>2.788770720769446e-18</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -556,7 +556,7 @@
         <v>0.03099254380944858</v>
       </c>
       <c r="C13">
-        <v>0.008390850622377223</v>
+        <v>1.958378521762924e-18</v>
       </c>
     </row>
   </sheetData>

--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -435,7 +435,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1049893408696204</v>
+        <v>5.346288662278841e-20</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -443,10 +443,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.3677972395916179</v>
+        <v>0.4250667495367802</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.3698035559332329</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -454,10 +454,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.02992458714920683</v>
+        <v>0.02283686003961818</v>
       </c>
       <c r="C4">
-        <v>0.1618706169496776</v>
+        <v>2.719181816842377e-18</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -465,10 +465,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.1234796460533761</v>
+        <v>2.059984127722458e-17</v>
       </c>
       <c r="C5">
-        <v>3.582521641092274e-17</v>
+        <v>4.683478700650488e-17</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -476,10 +476,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.2978233882891922</v>
+        <v>0.3260486671197617</v>
       </c>
       <c r="C6">
-        <v>0.7325499012809557</v>
+        <v>0.3176571920514362</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -487,10 +487,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.01090413753029659</v>
+        <v>1.965116437629977e-18</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.01762138445562067</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -498,7 +498,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>2.727446090158847e-19</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -509,10 +509,10 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.04514392892298908</v>
+        <v>0.03395846391654626</v>
       </c>
       <c r="C9">
-        <v>0.0004661450251538002</v>
+        <v>0.05108086275464575</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -520,10 +520,10 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.04884331813316044</v>
+        <v>0.03464765278391641</v>
       </c>
       <c r="C10">
-        <v>4.155213597677616e-17</v>
+        <v>0.07663993609146461</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -531,10 +531,10 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.04509121052071238</v>
+        <v>0.09670723458172271</v>
       </c>
       <c r="C11">
-        <v>0.0001239958745925973</v>
+        <v>3.993166304001589e-18</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>2.788770720769446e-18</v>
+        <v>1.492601215055902e-17</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -553,10 +553,10 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.03099254380944858</v>
+        <v>0.0607343720216545</v>
       </c>
       <c r="C13">
-        <v>1.958378521762924e-18</v>
+        <v>0.1671970687136</v>
       </c>
     </row>
   </sheetData>

--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -435,7 +435,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.346288662278841e-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -443,10 +443,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.4250667495367802</v>
+        <v>0.3677972395916179</v>
       </c>
       <c r="C3">
-        <v>0.3698035559332329</v>
+        <v>0.3677972307464058</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -454,10 +454,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.02283686003961818</v>
+        <v>0.02992458714920683</v>
       </c>
       <c r="C4">
-        <v>2.719181816842377e-18</v>
+        <v>0.02992461252661037</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -465,10 +465,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>2.059984127722458e-17</v>
+        <v>0.1234796460533761</v>
       </c>
       <c r="C5">
-        <v>4.683478700650488e-17</v>
+        <v>0.1234796466906095</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -476,10 +476,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.3260486671197617</v>
+        <v>0.2978233882891922</v>
       </c>
       <c r="C6">
-        <v>0.3176571920514362</v>
+        <v>0.2978233793571007</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -487,10 +487,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>1.965116437629977e-18</v>
+        <v>0.01090413753029659</v>
       </c>
       <c r="C7">
-        <v>0.01762138445562067</v>
+        <v>0.01090413015614074</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -498,7 +498,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>2.727446090158847e-19</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -509,10 +509,10 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.03395846391654626</v>
+        <v>0.04514392892298908</v>
       </c>
       <c r="C9">
-        <v>0.05108086275464575</v>
+        <v>0.04514393665358528</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -520,10 +520,10 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.03464765278391641</v>
+        <v>0.04884331813316044</v>
       </c>
       <c r="C10">
-        <v>0.07663993609146461</v>
+        <v>0.04884331010259938</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -531,10 +531,10 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.09670723458172271</v>
+        <v>0.04509121052071238</v>
       </c>
       <c r="C11">
-        <v>3.993166304001589e-18</v>
+        <v>0.04509121361603211</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1.492601215055902e-17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -553,10 +553,10 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.0607343720216545</v>
+        <v>0.03099254380944858</v>
       </c>
       <c r="C13">
-        <v>0.1671970687136</v>
+        <v>0.03099254015091614</v>
       </c>
     </row>
   </sheetData>

--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -435,7 +435,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>3.885780586188048e-16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -443,10 +443,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.3677972395916179</v>
+        <v>9.783840404509192e-16</v>
       </c>
       <c r="C3">
-        <v>0.3677972307464058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -454,10 +454,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.02992458714920683</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.02992461252661037</v>
+        <v>6.245004513516506e-16</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -465,10 +465,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.1234796460533761</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1234796466906095</v>
+        <v>1.02695629777827e-15</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -476,10 +476,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.2978233882891922</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2978233793571007</v>
+        <v>2.498001805406602e-16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -487,10 +487,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.01090413753029659</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01090413015614074</v>
+        <v>1.006139616066548e-15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>4.305366826939938e-16</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -509,10 +509,10 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.04514392892298908</v>
+        <v>5.412337245047638e-16</v>
       </c>
       <c r="C9">
-        <v>0.04514393665358528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -520,10 +520,10 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.04884331813316044</v>
+        <v>2.359223927328458e-16</v>
       </c>
       <c r="C10">
-        <v>0.04884331010259938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -531,10 +531,10 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.04509121052071238</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.04509121361603211</v>
+        <v>4.024558464266192e-16</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -553,10 +553,10 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.03099254380944858</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>0.03099254015091614</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Opt Portfolio</t>
   </si>
@@ -22,40 +22,55 @@
     <t>Opt Portfolio with View</t>
   </si>
   <si>
-    <t>Emerging Mkts</t>
-  </si>
-  <si>
-    <t>US Treasuries</t>
-  </si>
-  <si>
-    <t>High Yield</t>
-  </si>
-  <si>
-    <t>Int'l Bonds</t>
-  </si>
-  <si>
-    <t>Bonds - Agg</t>
-  </si>
-  <si>
-    <t>Russ 1K Gro</t>
-  </si>
-  <si>
-    <t>GOLD</t>
-  </si>
-  <si>
-    <t>Commodities</t>
-  </si>
-  <si>
-    <t>Small Stocks</t>
-  </si>
-  <si>
-    <t>Russ 1K Val</t>
-  </si>
-  <si>
-    <t>Real Estate</t>
-  </si>
-  <si>
-    <t>S&amp;P 500</t>
+    <t>US High Yield Bonds</t>
+  </si>
+  <si>
+    <t>US Equity</t>
+  </si>
+  <si>
+    <t>Spanish Equity</t>
+  </si>
+  <si>
+    <t>MSCI World</t>
+  </si>
+  <si>
+    <t>MSCI Info tech</t>
+  </si>
+  <si>
+    <t>Italian Equity</t>
+  </si>
+  <si>
+    <t>Greek Govies</t>
+  </si>
+  <si>
+    <t>Greek Equity</t>
+  </si>
+  <si>
+    <t>German Equity</t>
+  </si>
+  <si>
+    <t>European Equity</t>
+  </si>
+  <si>
+    <t>European Corp</t>
+  </si>
+  <si>
+    <t>European Banks</t>
+  </si>
+  <si>
+    <t>EU High Yield Bonds</t>
+  </si>
+  <si>
+    <t>Emerging Asia Equity</t>
+  </si>
+  <si>
+    <t>Chinese Equity</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>1-5 years GILTS</t>
   </si>
 </sst>
 </file>
@@ -413,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,10 +447,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.00315492070843431</v>
       </c>
       <c r="C2">
-        <v>3.885780586188048e-16</v>
+        <v>0.003154966570271506</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -443,10 +458,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>9.783840404509192e-16</v>
+        <v>0.004199034084009822</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.004199030326780291</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -454,10 +469,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.0003611873133961651</v>
       </c>
       <c r="C4">
-        <v>6.245004513516506e-16</v>
+        <v>0.0003611815471370783</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -465,10 +480,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.003819085444500003</v>
       </c>
       <c r="C5">
-        <v>1.02695629777827e-15</v>
+        <v>0.003819095342884271</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -476,10 +491,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.003935802368980387</v>
       </c>
       <c r="C6">
-        <v>2.498001805406602e-16</v>
+        <v>0.003935797963162609</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -487,10 +502,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.005193523401558717</v>
       </c>
       <c r="C7">
-        <v>1.006139616066548e-15</v>
+        <v>0.00519350476374041</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -498,10 +513,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1.501718098835149e-05</v>
       </c>
       <c r="C8">
-        <v>4.305366826939938e-16</v>
+        <v>1.501248085167256e-05</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -509,7 +524,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>5.412337245047638e-16</v>
+        <v>3.941484905584094e-21</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -520,10 +535,10 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>2.359223927328458e-16</v>
+        <v>0.009319271088750667</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.009319274914133967</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -531,10 +546,10 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.005819668809611802</v>
       </c>
       <c r="C11">
-        <v>4.024558464266192e-16</v>
+        <v>0.005819676705408487</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -542,10 +557,10 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>0.1953501833099527</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.1953501607042582</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -553,10 +568,65 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0.01453939738842425</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0.01453939117218285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>0.002389090340788871</v>
+      </c>
+      <c r="C14">
+        <v>0.002389111646993501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>0.0002622190250429839</v>
+      </c>
+      <c r="C15">
+        <v>0.0002622059321314265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>0.006044244303905958</v>
+      </c>
+      <c r="C16">
+        <v>0.006044254311253346</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>0.370532592559188</v>
+      </c>
+      <c r="C17">
+        <v>0.370532570333677</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>0.3750647626724672</v>
+      </c>
+      <c r="C18">
+        <v>0.3750647652851333</v>
       </c>
     </row>
   </sheetData>

--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Opt Portfolio</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>Chinese Equity</t>
-  </si>
-  <si>
-    <t>Cash</t>
   </si>
   <si>
     <t>1-5 years GILTS</t>
@@ -428,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,10 +444,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.00315492070843431</v>
+        <v>0.02998349699801747</v>
       </c>
       <c r="C2">
-        <v>0.003154966570271506</v>
+        <v>0.02997980578320772</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -458,10 +455,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.004199034084009822</v>
+        <v>1.761589625444573e-19</v>
       </c>
       <c r="C3">
-        <v>0.004199030326780291</v>
+        <v>3.862800410783512e-19</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -469,10 +466,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.0003611873133961651</v>
+        <v>1.761589625444573e-19</v>
       </c>
       <c r="C4">
-        <v>0.0003611815471370783</v>
+        <v>1.62748231801186e-19</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -480,10 +477,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.003819085444500003</v>
+        <v>2.439454888092385e-19</v>
       </c>
       <c r="C5">
-        <v>0.003819095342884271</v>
+        <v>1.62748231801186e-19</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -491,10 +488,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.003935802368980387</v>
+        <v>2.752045353098075e-19</v>
       </c>
       <c r="C6">
-        <v>0.003935797963162609</v>
+        <v>2.846691045382254e-19</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -502,10 +499,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.005193523401558717</v>
+        <v>0.002899558148691509</v>
       </c>
       <c r="C7">
-        <v>0.00519350476374041</v>
+        <v>0.002899779144328617</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -513,10 +510,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>1.501718098835149e-05</v>
+        <v>0.0219351662951515</v>
       </c>
       <c r="C8">
-        <v>1.501248085167256e-05</v>
+        <v>0.0219363217695006</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -524,10 +521,10 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>3.941484905584094e-21</v>
+        <v>0.03294249137981119</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.0329428682566893</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -535,10 +532,10 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.009319271088750667</v>
+        <v>8.806444213787078e-20</v>
       </c>
       <c r="C10">
-        <v>0.009319274914133967</v>
+        <v>1.423345522691127e-19</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -546,10 +543,10 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.005819668809611802</v>
+        <v>0.002411575005719938</v>
       </c>
       <c r="C11">
-        <v>0.005819676705408487</v>
+        <v>0.002411783866887989</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -557,10 +554,10 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.1953501833099527</v>
+        <v>0.6949378640760929</v>
       </c>
       <c r="C12">
-        <v>0.1953501607042582</v>
+        <v>0.6949474739127106</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -568,10 +565,10 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.01453939738842425</v>
+        <v>0.0008727300330695211</v>
       </c>
       <c r="C13">
-        <v>0.01453939117218285</v>
+        <v>0.0008727562585592101</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -579,10 +576,10 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.002389090340788871</v>
+        <v>0.05277490247116246</v>
       </c>
       <c r="C14">
-        <v>0.002389111646993501</v>
+        <v>0.05277251263754121</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -590,10 +587,10 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.0002622190250429839</v>
+        <v>3.247273216924826e-19</v>
       </c>
       <c r="C15">
-        <v>0.0002622059321314265</v>
+        <v>4.95220678144552e-20</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -601,10 +598,10 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.006044244303905958</v>
+        <v>0.01684847136174504</v>
       </c>
       <c r="C16">
-        <v>0.006044254311253346</v>
+        <v>0.01684995209365592</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -612,21 +609,10 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.370532592559188</v>
+        <v>0.1443937442305386</v>
       </c>
       <c r="C17">
-        <v>0.370532570333677</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>0.3750647626724672</v>
-      </c>
-      <c r="C18">
-        <v>0.3750647652851333</v>
+        <v>0.1443867462769187</v>
       </c>
     </row>
   </sheetData>

--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -447,7 +447,7 @@
         <v>0.02998349699801747</v>
       </c>
       <c r="C2">
-        <v>0.02997980578320772</v>
+        <v>3.416580644237559e-18</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -458,7 +458,7 @@
         <v>1.761589625444573e-19</v>
       </c>
       <c r="C3">
-        <v>3.862800410783512e-19</v>
+        <v>1.256525404968262e-17</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -469,7 +469,7 @@
         <v>1.761589625444573e-19</v>
       </c>
       <c r="C4">
-        <v>1.62748231801186e-19</v>
+        <v>6.423044353443471e-18</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -480,7 +480,7 @@
         <v>2.439454888092385e-19</v>
       </c>
       <c r="C5">
-        <v>1.62748231801186e-19</v>
+        <v>5.608016481145033e-19</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -491,7 +491,7 @@
         <v>2.752045353098075e-19</v>
       </c>
       <c r="C6">
-        <v>2.846691045382254e-19</v>
+        <v>4.105796903885244e-18</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -502,7 +502,7 @@
         <v>0.002899558148691509</v>
       </c>
       <c r="C7">
-        <v>0.002899779144328617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -513,7 +513,7 @@
         <v>0.0219351662951515</v>
       </c>
       <c r="C8">
-        <v>0.0219363217695006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -524,7 +524,7 @@
         <v>0.03294249137981119</v>
       </c>
       <c r="C9">
-        <v>0.0329428682566893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -535,7 +535,7 @@
         <v>8.806444213787078e-20</v>
       </c>
       <c r="C10">
-        <v>1.423345522691127e-19</v>
+        <v>1.212151697752774e-18</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -546,7 +546,7 @@
         <v>0.002411575005719938</v>
       </c>
       <c r="C11">
-        <v>0.002411783866887989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -557,7 +557,7 @@
         <v>0.6949378640760929</v>
       </c>
       <c r="C12">
-        <v>0.6949474739127106</v>
+        <v>3.158883754877052e-18</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -568,7 +568,7 @@
         <v>0.0008727300330695211</v>
       </c>
       <c r="C13">
-        <v>0.0008727562585592101</v>
+        <v>9.755461367149147e-18</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -579,7 +579,7 @@
         <v>0.05277490247116246</v>
       </c>
       <c r="C14">
-        <v>0.05277251263754121</v>
+        <v>0.5775361384257475</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -590,7 +590,7 @@
         <v>3.247273216924826e-19</v>
       </c>
       <c r="C15">
-        <v>4.95220678144552e-20</v>
+        <v>7.635978195447155e-18</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -601,7 +601,7 @@
         <v>0.01684847136174504</v>
       </c>
       <c r="C16">
-        <v>0.01684995209365592</v>
+        <v>4.694572097135503e-18</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -612,7 +612,7 @@
         <v>0.1443937442305386</v>
       </c>
       <c r="C17">
-        <v>0.1443867462769187</v>
+        <v>0.4224638615742526</v>
       </c>
     </row>
   </sheetData>

--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -447,7 +447,7 @@
         <v>0.02998349699801747</v>
       </c>
       <c r="C2">
-        <v>3.416580644237559e-18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -458,7 +458,7 @@
         <v>1.761589625444573e-19</v>
       </c>
       <c r="C3">
-        <v>1.256525404968262e-17</v>
+        <v>3.260804054269001e-20</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -469,7 +469,7 @@
         <v>1.761589625444573e-19</v>
       </c>
       <c r="C4">
-        <v>6.423044353443471e-18</v>
+        <v>9.081217886667661e-19</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -480,7 +480,7 @@
         <v>2.439454888092385e-19</v>
       </c>
       <c r="C5">
-        <v>5.608016481145033e-19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -491,7 +491,7 @@
         <v>2.752045353098075e-19</v>
       </c>
       <c r="C6">
-        <v>4.105796903885244e-18</v>
+        <v>3.457218936750106e-18</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -502,7 +502,7 @@
         <v>0.002899558148691509</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>2.827077658597984e-18</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -513,7 +513,7 @@
         <v>0.0219351662951515</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>2.827077658597984e-18</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -524,7 +524,7 @@
         <v>0.03294249137981119</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.03302508923960513</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -535,7 +535,7 @@
         <v>8.806444213787078e-20</v>
       </c>
       <c r="C10">
-        <v>1.212151697752774e-18</v>
+        <v>1.6304020271345e-20</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -546,7 +546,7 @@
         <v>0.002411575005719938</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>8.152010135672502e-21</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -557,7 +557,7 @@
         <v>0.6949378640760929</v>
       </c>
       <c r="C12">
-        <v>3.158883754877052e-18</v>
+        <v>0.6996651823201925</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -568,7 +568,7 @@
         <v>0.0008727300330695211</v>
       </c>
       <c r="C13">
-        <v>9.755461367149147e-18</v>
+        <v>2.225468415920716e-18</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -579,7 +579,7 @@
         <v>0.05277490247116246</v>
       </c>
       <c r="C14">
-        <v>0.5775361384257475</v>
+        <v>0.01357995565580946</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -590,7 +590,7 @@
         <v>3.247273216924826e-19</v>
       </c>
       <c r="C15">
-        <v>7.635978195447155e-18</v>
+        <v>3.243516722644059e-17</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -601,7 +601,7 @@
         <v>0.01684847136174504</v>
       </c>
       <c r="C16">
-        <v>4.694572097135503e-18</v>
+        <v>0.06376851999281302</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -612,7 +612,7 @@
         <v>0.1443937442305386</v>
       </c>
       <c r="C17">
-        <v>0.4224638615742526</v>
+        <v>0.1899612527915799</v>
       </c>
     </row>
   </sheetData>

--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -447,7 +447,7 @@
         <v>0.02998349699801747</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.2466370749492557</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -458,7 +458,7 @@
         <v>1.761589625444573e-19</v>
       </c>
       <c r="C3">
-        <v>3.260804054269001e-20</v>
+        <v>0.009846537327280743</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -469,7 +469,7 @@
         <v>1.761589625444573e-19</v>
       </c>
       <c r="C4">
-        <v>9.081217886667661e-19</v>
+        <v>0.00072850246583498</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -480,7 +480,7 @@
         <v>2.439454888092385e-19</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.02816842647723668</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -491,7 +491,7 @@
         <v>2.752045353098075e-19</v>
       </c>
       <c r="C6">
-        <v>3.457218936750106e-18</v>
+        <v>1.708316993799091e-18</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -502,7 +502,7 @@
         <v>0.002899558148691509</v>
       </c>
       <c r="C7">
-        <v>2.827077658597984e-18</v>
+        <v>0.000774521279597736</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -513,7 +513,7 @@
         <v>0.0219351662951515</v>
       </c>
       <c r="C8">
-        <v>2.827077658597984e-18</v>
+        <v>0.02311043898291583</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -524,7 +524,7 @@
         <v>0.03294249137981119</v>
       </c>
       <c r="C9">
-        <v>0.03302508923960513</v>
+        <v>0.1101516327223209</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -535,7 +535,7 @@
         <v>8.806444213787078e-20</v>
       </c>
       <c r="C10">
-        <v>1.6304020271345e-20</v>
+        <v>0.0002008355530203714</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -546,7 +546,7 @@
         <v>0.002411575005719938</v>
       </c>
       <c r="C11">
-        <v>8.152010135672502e-21</v>
+        <v>0.02204372345666923</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -557,7 +557,7 @@
         <v>0.6949378640760929</v>
       </c>
       <c r="C12">
-        <v>0.6996651823201925</v>
+        <v>3.01153745330273e-17</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -568,7 +568,7 @@
         <v>0.0008727300330695211</v>
       </c>
       <c r="C13">
-        <v>2.225468415920716e-18</v>
+        <v>7.692741145799391e-05</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -579,7 +579,7 @@
         <v>0.05277490247116246</v>
       </c>
       <c r="C14">
-        <v>0.01357995565580946</v>
+        <v>0.326582795141821</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -590,7 +590,7 @@
         <v>3.247273216924826e-19</v>
       </c>
       <c r="C15">
-        <v>3.243516722644059e-17</v>
+        <v>0.0002056051372634622</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -601,7 +601,7 @@
         <v>0.01684847136174504</v>
       </c>
       <c r="C16">
-        <v>0.06376851999281302</v>
+        <v>0.01974258369999374</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -612,7 +612,7 @@
         <v>0.1443937442305386</v>
       </c>
       <c r="C17">
-        <v>0.1899612527915799</v>
+        <v>0.2117303953953317</v>
       </c>
     </row>
   </sheetData>

--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Opt Portfolio</t>
   </si>
@@ -22,52 +22,25 @@
     <t>Opt Portfolio with View</t>
   </si>
   <si>
-    <t>US High Yield Bonds</t>
-  </si>
-  <si>
-    <t>US Equity</t>
-  </si>
-  <si>
-    <t>Spanish Equity</t>
-  </si>
-  <si>
-    <t>MSCI World</t>
-  </si>
-  <si>
-    <t>MSCI Info tech</t>
-  </si>
-  <si>
-    <t>Italian Equity</t>
-  </si>
-  <si>
-    <t>Greek Govies</t>
-  </si>
-  <si>
-    <t>Greek Equity</t>
-  </si>
-  <si>
-    <t>German Equity</t>
-  </si>
-  <si>
-    <t>European Equity</t>
-  </si>
-  <si>
-    <t>European Corp</t>
-  </si>
-  <si>
-    <t>European Banks</t>
-  </si>
-  <si>
-    <t>EU High Yield Bonds</t>
-  </si>
-  <si>
-    <t>Emerging Asia Equity</t>
-  </si>
-  <si>
-    <t>Chinese Equity</t>
-  </si>
-  <si>
-    <t>1-5 years GILTS</t>
+    <t>EUR001M Index</t>
+  </si>
+  <si>
+    <t>LEF1TREU Index</t>
+  </si>
+  <si>
+    <t>SX5R Index</t>
+  </si>
+  <si>
+    <t>SXUSR Index	US</t>
+  </si>
+  <si>
+    <t>BEGCGA Index</t>
+  </si>
+  <si>
+    <t>LEC4TREU Index</t>
+  </si>
+  <si>
+    <t>LEATTREU Index</t>
   </si>
 </sst>
 </file>
@@ -425,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,10 +417,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.02998349699801747</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0.2466370749492557</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -455,10 +428,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1.761589625444573e-19</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.009846537327280743</v>
+        <v>3.05311331771918e-16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -466,10 +439,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1.761589625444573e-19</v>
+        <v>6.436803831546e-16</v>
       </c>
       <c r="C4">
-        <v>0.00072850246583498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -477,10 +450,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>2.439454888092385e-19</v>
+        <v>3.787206496253191e-16</v>
       </c>
       <c r="C5">
-        <v>0.02816842647723668</v>
+        <v>3.200284730239067e-17</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -488,10 +461,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>2.752045353098075e-19</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1.708316993799091e-18</v>
+        <v>5.560422236538279e-16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -499,10 +472,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.002899558148691509</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.000774521279597736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -510,109 +483,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.0219351662951515</v>
+        <v>2.517749162550946e-15</v>
       </c>
       <c r="C8">
-        <v>0.02311043898291583</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>0.03294249137981119</v>
-      </c>
-      <c r="C9">
-        <v>0.1101516327223209</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>8.806444213787078e-20</v>
-      </c>
-      <c r="C10">
-        <v>0.0002008355530203714</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>0.002411575005719938</v>
-      </c>
-      <c r="C11">
-        <v>0.02204372345666923</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>0.6949378640760929</v>
-      </c>
-      <c r="C12">
-        <v>3.01153745330273e-17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>0.0008727300330695211</v>
-      </c>
-      <c r="C13">
-        <v>7.692741145799391e-05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>0.05277490247116246</v>
-      </c>
-      <c r="C14">
-        <v>0.326582795141821</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>3.247273216924826e-19</v>
-      </c>
-      <c r="C15">
-        <v>0.0002056051372634622</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>0.01684847136174504</v>
-      </c>
-      <c r="C16">
-        <v>0.01974258369999374</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>0.1443937442305386</v>
-      </c>
-      <c r="C17">
-        <v>0.2117303953953317</v>
+        <v>1.206421473722328e-15</v>
       </c>
     </row>
   </sheetData>

--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -22,25 +22,25 @@
     <t>Opt Portfolio with View</t>
   </si>
   <si>
-    <t>EUR001M Index</t>
-  </si>
-  <si>
-    <t>LEF1TREU Index</t>
-  </si>
-  <si>
-    <t>SX5R Index</t>
-  </si>
-  <si>
-    <t>SXUSR Index	US</t>
-  </si>
-  <si>
-    <t>BEGCGA Index</t>
-  </si>
-  <si>
-    <t>LEC4TREU Index</t>
-  </si>
-  <si>
-    <t>LEATTREU Index</t>
+    <t>PARSTEI LX Equity</t>
+  </si>
+  <si>
+    <t>FLOT FP Equity</t>
+  </si>
+  <si>
+    <t>SX5EEX GY Equity</t>
+  </si>
+  <si>
+    <t>SPY US Equity</t>
+  </si>
+  <si>
+    <t>LFGGBDR LX Equity</t>
+  </si>
+  <si>
+    <t>EUN5 GY Equity</t>
+  </si>
+  <si>
+    <t>EUNH GY Equity</t>
   </si>
 </sst>
 </file>
@@ -420,7 +420,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999986</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -431,7 +431,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.05311331771918e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -439,10 +439,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>6.436803831546e-16</v>
+        <v>5.415120407071345e-16</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>8.292679237873184e-16</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -450,10 +450,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>3.787206496253191e-16</v>
+        <v>4.567492532905971e-16</v>
       </c>
       <c r="C5">
-        <v>3.200284730239067e-17</v>
+        <v>6.684234565806446e-16</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -461,10 +461,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>8.981681503671817e-16</v>
       </c>
       <c r="C6">
-        <v>5.560422236538279e-16</v>
+        <v>1.077585560291168e-15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -475,7 +475,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>9.204482471635608e-16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -483,10 +483,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>2.517749162550946e-15</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1.206421473722328e-15</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -417,10 +417,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.3921459680713356</v>
       </c>
       <c r="C2">
-        <v>0.9999999999999986</v>
+        <v>0.4690580135690283</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -428,10 +428,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.1938669551675961</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.1186057994486912</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -439,10 +439,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>5.415120407071345e-16</v>
+        <v>0.0677949822057861</v>
       </c>
       <c r="C4">
-        <v>8.292679237873184e-16</v>
+        <v>0.06717876075738202</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -450,10 +450,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>4.567492532905971e-16</v>
+        <v>0.06719666705145336</v>
       </c>
       <c r="C5">
-        <v>6.684234565806446e-16</v>
+        <v>0.0671787607573822</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -461,10 +461,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>8.981681503671817e-16</v>
+        <v>0.07195801386525061</v>
       </c>
       <c r="C6">
-        <v>1.077585560291168e-15</v>
+        <v>0.06717876075738212</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -472,10 +472,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.08419062385962513</v>
       </c>
       <c r="C7">
-        <v>9.204482471635608e-16</v>
+        <v>0.08023122541279935</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -483,10 +483,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.1228467897789531</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.130568679297338</v>
       </c>
     </row>
   </sheetData>

--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -417,10 +417,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.3921459680713356</v>
+        <v>0.2685990624464732</v>
       </c>
       <c r="C2">
-        <v>0.4690580135690283</v>
+        <v>0.2685990624464732</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -428,10 +428,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.1938669551675961</v>
+        <v>0.2595668476817547</v>
       </c>
       <c r="C3">
-        <v>0.1186057994486912</v>
+        <v>0.2595668476817547</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -439,10 +439,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.0677949822057861</v>
+        <v>8.673617379884035e-19</v>
       </c>
       <c r="C4">
-        <v>0.06717876075738202</v>
+        <v>8.673617379884035e-19</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -450,10 +450,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.06719666705145336</v>
+        <v>3.035766082959412e-18</v>
       </c>
       <c r="C5">
-        <v>0.0671787607573822</v>
+        <v>3.035766082959412e-18</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -461,10 +461,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.07195801386525061</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.06717876075738212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -472,10 +472,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.08419062385962513</v>
+        <v>0.2410965409232599</v>
       </c>
       <c r="C7">
-        <v>0.08023122541279935</v>
+        <v>0.2410965409232599</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -483,10 +483,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.1228467897789531</v>
+        <v>0.2307375489485121</v>
       </c>
       <c r="C8">
-        <v>0.130568679297338</v>
+        <v>0.2307375489485121</v>
       </c>
     </row>
   </sheetData>

--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -417,10 +417,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.2685990624464732</v>
+        <v>0.2454406141024289</v>
       </c>
       <c r="C2">
-        <v>0.2685990624464732</v>
+        <v>0.245440628078421</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -428,10 +428,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.2595668476817547</v>
+        <v>0.1815773618901335</v>
       </c>
       <c r="C3">
-        <v>0.2595668476817547</v>
+        <v>0.1815773450933061</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -439,10 +439,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>8.673617379884035e-19</v>
+        <v>0.09883777827451906</v>
       </c>
       <c r="C4">
-        <v>8.673617379884035e-19</v>
+        <v>0.09883777827451899</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -450,10 +450,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>3.035766082959412e-18</v>
+        <v>0.09883777827451906</v>
       </c>
       <c r="C5">
-        <v>3.035766082959412e-18</v>
+        <v>0.09883777827451901</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -461,10 +461,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.09883777827451906</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.09883777827451899</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -472,10 +472,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.2410965409232599</v>
+        <v>0.11995695347692</v>
       </c>
       <c r="C7">
-        <v>0.2410965409232599</v>
+        <v>0.1199569551788409</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -483,10 +483,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.2307375489485121</v>
+        <v>0.1565117357069661</v>
       </c>
       <c r="C8">
-        <v>0.2307375489485121</v>
+        <v>0.1565117368258783</v>
       </c>
     </row>
   </sheetData>

--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Initial Weights</t>
+  </si>
   <si>
     <t>Opt Portfolio</t>
   </si>
@@ -398,94 +401,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
+        <v>0.1</v>
+      </c>
+      <c r="C2">
         <v>0.2454406141024289</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.245440628078421</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
+        <v>0.05</v>
+      </c>
+      <c r="C3">
         <v>0.1815773618901335</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.1815773450933061</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
+        <v>0.1</v>
+      </c>
+      <c r="C4">
         <v>0.09883777827451906</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.09883777827451899</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
+        <v>0.1</v>
+      </c>
+      <c r="C5">
         <v>0.09883777827451906</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.09883777827451901</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
+        <v>0.15</v>
+      </c>
+      <c r="C6">
         <v>0.09883777827451906</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.09883777827451899</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
+        <v>0.2</v>
+      </c>
+      <c r="C7">
         <v>0.11995695347692</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.1199569551788409</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
+        <v>0.3</v>
+      </c>
+      <c r="C8">
         <v>0.1565117357069661</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.1565117368258783</v>
       </c>
     </row>

--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -426,10 +426,10 @@
         <v>0.1</v>
       </c>
       <c r="C2">
-        <v>0.2454406141024289</v>
+        <v>0.562341192568151</v>
       </c>
       <c r="D2">
-        <v>0.245440628078421</v>
+        <v>0.562341192568151</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -440,10 +440,10 @@
         <v>0.05</v>
       </c>
       <c r="C3">
-        <v>0.1815773618901335</v>
+        <v>0.3584989408622693</v>
       </c>
       <c r="D3">
-        <v>0.1815773450933061</v>
+        <v>0.3584989408622693</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -454,10 +454,10 @@
         <v>0.1</v>
       </c>
       <c r="C4">
-        <v>0.09883777827451906</v>
+        <v>4.336808689942018e-19</v>
       </c>
       <c r="D4">
-        <v>0.09883777827451899</v>
+        <v>4.336808689942018e-19</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -468,10 +468,10 @@
         <v>0.1</v>
       </c>
       <c r="C5">
-        <v>0.09883777827451906</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.09883777827451901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -482,10 +482,10 @@
         <v>0.15</v>
       </c>
       <c r="C6">
-        <v>0.09883777827451906</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.09883777827451899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -496,10 +496,10 @@
         <v>0.2</v>
       </c>
       <c r="C7">
-        <v>0.11995695347692</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1199569551788409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -510,10 +510,10 @@
         <v>0.3</v>
       </c>
       <c r="C8">
-        <v>0.1565117357069661</v>
+        <v>0.07915986656957973</v>
       </c>
       <c r="D8">
-        <v>0.1565117368258783</v>
+        <v>0.07915986656957973</v>
       </c>
     </row>
   </sheetData>

--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -426,10 +426,10 @@
         <v>0.1</v>
       </c>
       <c r="C2">
-        <v>0.562341192568151</v>
+        <v>0.2718729031447604</v>
       </c>
       <c r="D2">
-        <v>0.562341192568151</v>
+        <v>0.2718729031447604</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -440,10 +440,10 @@
         <v>0.05</v>
       </c>
       <c r="C3">
-        <v>0.3584989408622693</v>
+        <v>0.2619866744857898</v>
       </c>
       <c r="D3">
-        <v>0.3584989408622693</v>
+        <v>0.2619866744857898</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -454,10 +454,10 @@
         <v>0.1</v>
       </c>
       <c r="C4">
-        <v>4.336808689942018e-19</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>4.336808689942018e-19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -468,10 +468,10 @@
         <v>0.1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2.846030702774449e-19</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2.846030702774449e-19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -482,10 +482,10 @@
         <v>0.15</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>3.469446951953614e-18</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>3.469446951953614e-18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -496,10 +496,10 @@
         <v>0.2</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.2407114716596564</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.2407114716596564</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -510,10 +510,10 @@
         <v>0.3</v>
       </c>
       <c r="C8">
-        <v>0.07915986656957973</v>
+        <v>0.2254289507097933</v>
       </c>
       <c r="D8">
-        <v>0.07915986656957973</v>
+        <v>0.2254289507097933</v>
       </c>
     </row>
   </sheetData>

--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -426,10 +426,10 @@
         <v>0.1</v>
       </c>
       <c r="C2">
-        <v>0.2718729031447604</v>
+        <v>0.2454406141024289</v>
       </c>
       <c r="D2">
-        <v>0.2718729031447604</v>
+        <v>0.245440628078421</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -440,10 +440,10 @@
         <v>0.05</v>
       </c>
       <c r="C3">
-        <v>0.2619866744857898</v>
+        <v>0.1815773618901335</v>
       </c>
       <c r="D3">
-        <v>0.2619866744857898</v>
+        <v>0.1815773450933061</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -454,10 +454,10 @@
         <v>0.1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.09883777827451906</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.09883777827451899</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -468,10 +468,10 @@
         <v>0.1</v>
       </c>
       <c r="C5">
-        <v>2.846030702774449e-19</v>
+        <v>0.09883777827451906</v>
       </c>
       <c r="D5">
-        <v>2.846030702774449e-19</v>
+        <v>0.09883777827451901</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -482,10 +482,10 @@
         <v>0.15</v>
       </c>
       <c r="C6">
-        <v>3.469446951953614e-18</v>
+        <v>0.09883777827451906</v>
       </c>
       <c r="D6">
-        <v>3.469446951953614e-18</v>
+        <v>0.09883777827451899</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -496,10 +496,10 @@
         <v>0.2</v>
       </c>
       <c r="C7">
-        <v>0.2407114716596564</v>
+        <v>0.11995695347692</v>
       </c>
       <c r="D7">
-        <v>0.2407114716596564</v>
+        <v>0.1199569551788409</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -510,10 +510,10 @@
         <v>0.3</v>
       </c>
       <c r="C8">
-        <v>0.2254289507097933</v>
+        <v>0.1565117357069661</v>
       </c>
       <c r="D8">
-        <v>0.2254289507097933</v>
+        <v>0.1565117368258783</v>
       </c>
     </row>
   </sheetData>

--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -426,10 +426,10 @@
         <v>0.1</v>
       </c>
       <c r="C2">
-        <v>0.2454406141024289</v>
+        <v>0.1657811205202583</v>
       </c>
       <c r="D2">
-        <v>0.245440628078421</v>
+        <v>0.1657810991108276</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -440,10 +440,10 @@
         <v>0.05</v>
       </c>
       <c r="C3">
-        <v>0.1815773618901335</v>
+        <v>0.1615951055592954</v>
       </c>
       <c r="D3">
-        <v>0.1815773450933061</v>
+        <v>0.1615950709247715</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -454,10 +454,10 @@
         <v>0.1</v>
       </c>
       <c r="C4">
-        <v>0.09883777827451906</v>
+        <v>0.124265581389829</v>
       </c>
       <c r="D4">
-        <v>0.09883777827451899</v>
+        <v>0.1242655813898289</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -468,10 +468,10 @@
         <v>0.1</v>
       </c>
       <c r="C5">
-        <v>0.09883777827451906</v>
+        <v>0.124265581389829</v>
       </c>
       <c r="D5">
-        <v>0.09883777827451901</v>
+        <v>0.124265581389829</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -482,10 +482,10 @@
         <v>0.15</v>
       </c>
       <c r="C6">
-        <v>0.09883777827451906</v>
+        <v>0.124265581389829</v>
       </c>
       <c r="D6">
-        <v>0.09883777827451899</v>
+        <v>0.124265581389829</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -496,10 +496,10 @@
         <v>0.2</v>
       </c>
       <c r="C7">
-        <v>0.11995695347692</v>
+        <v>0.1525293361577476</v>
       </c>
       <c r="D7">
-        <v>0.1199569551788409</v>
+        <v>0.1525293532280509</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -510,10 +510,10 @@
         <v>0.3</v>
       </c>
       <c r="C8">
-        <v>0.1565117357069661</v>
+        <v>0.1472976935932118</v>
       </c>
       <c r="D8">
-        <v>0.1565117368258783</v>
+        <v>0.1472977325668632</v>
       </c>
     </row>
   </sheetData>

--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -426,10 +426,10 @@
         <v>0.1</v>
       </c>
       <c r="C2">
-        <v>0.1657811205202583</v>
+        <v>0.1559305616838552</v>
       </c>
       <c r="D2">
-        <v>0.1657810991108276</v>
+        <v>0.1559304748967024</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -440,10 +440,10 @@
         <v>0.05</v>
       </c>
       <c r="C3">
-        <v>0.1615951055592954</v>
+        <v>0.1637229051272682</v>
       </c>
       <c r="D3">
-        <v>0.1615950709247715</v>
+        <v>0.1637228384233602</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -454,10 +454,10 @@
         <v>0.1</v>
       </c>
       <c r="C4">
-        <v>0.124265581389829</v>
+        <v>0.08546269601881656</v>
       </c>
       <c r="D4">
-        <v>0.1242655813898289</v>
+        <v>0.0854627095093803</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -468,10 +468,10 @@
         <v>0.1</v>
       </c>
       <c r="C5">
-        <v>0.124265581389829</v>
+        <v>0.07238432245797</v>
       </c>
       <c r="D5">
-        <v>0.124265581389829</v>
+        <v>0.07238423279098104</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -482,10 +482,10 @@
         <v>0.15</v>
       </c>
       <c r="C6">
-        <v>0.124265581389829</v>
+        <v>0.130098276253158</v>
       </c>
       <c r="D6">
-        <v>0.124265581389829</v>
+        <v>0.130098355694125</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -496,10 +496,10 @@
         <v>0.2</v>
       </c>
       <c r="C7">
-        <v>0.1525293361577476</v>
+        <v>0.1839516980365401</v>
       </c>
       <c r="D7">
-        <v>0.1525293532280509</v>
+        <v>0.1839517227747055</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -510,10 +510,10 @@
         <v>0.3</v>
       </c>
       <c r="C8">
-        <v>0.1472976935932118</v>
+        <v>0.208449540422392</v>
       </c>
       <c r="D8">
-        <v>0.1472977325668632</v>
+        <v>0.2084496659107455</v>
       </c>
     </row>
   </sheetData>

--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -426,10 +426,10 @@
         <v>0.1</v>
       </c>
       <c r="C2">
-        <v>0.1559305616838552</v>
+        <v>3.876022766635678e-18</v>
       </c>
       <c r="D2">
-        <v>0.1559304748967024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -440,10 +440,10 @@
         <v>0.05</v>
       </c>
       <c r="C3">
-        <v>0.1637229051272682</v>
+        <v>0.02124815174069435</v>
       </c>
       <c r="D3">
-        <v>0.1637228384233602</v>
+        <v>0.02124764584718219</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -454,10 +454,10 @@
         <v>0.1</v>
       </c>
       <c r="C4">
-        <v>0.08546269601881656</v>
+        <v>0.1273388301359862</v>
       </c>
       <c r="D4">
-        <v>0.0854627095093803</v>
+        <v>0.1273383454430054</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -468,10 +468,10 @@
         <v>0.1</v>
       </c>
       <c r="C5">
-        <v>0.07238432245797</v>
+        <v>0.1697700754744735</v>
       </c>
       <c r="D5">
-        <v>0.07238423279098104</v>
+        <v>0.1697703529919921</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -482,10 +482,10 @@
         <v>0.15</v>
       </c>
       <c r="C6">
-        <v>0.130098276253158</v>
+        <v>0.2390017860881791</v>
       </c>
       <c r="D6">
-        <v>0.130098355694125</v>
+        <v>0.2390020959213678</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -496,10 +496,10 @@
         <v>0.2</v>
       </c>
       <c r="C7">
-        <v>0.1839516980365401</v>
+        <v>0.09744088543812593</v>
       </c>
       <c r="D7">
-        <v>0.1839517227747055</v>
+        <v>0.09744157541012331</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -510,10 +510,10 @@
         <v>0.3</v>
       </c>
       <c r="C8">
-        <v>0.208449540422392</v>
+        <v>0.345200271122541</v>
       </c>
       <c r="D8">
-        <v>0.2084496659107455</v>
+        <v>0.3451999843863293</v>
       </c>
     </row>
   </sheetData>

--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -423,7 +423,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="C2">
         <v>3.876022766635678e-18</v>
@@ -437,7 +437,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="C3">
         <v>0.02124815174069435</v>
@@ -451,7 +451,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="C4">
         <v>0.1273388301359862</v>
@@ -479,7 +479,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="C6">
         <v>0.2390017860881791</v>
@@ -493,7 +493,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="C7">
         <v>0.09744088543812593</v>
@@ -507,7 +507,7 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C8">
         <v>0.345200271122541</v>

--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -429,7 +429,7 @@
         <v>3.876022766635678e-18</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.3467746958790734</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -443,7 +443,7 @@
         <v>0.02124815174069435</v>
       </c>
       <c r="D3">
-        <v>0.02124764584718219</v>
+        <v>0.3334176855470986</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -457,7 +457,7 @@
         <v>0.1273388301359862</v>
       </c>
       <c r="D4">
-        <v>0.1273383454430054</v>
+        <v>7.531898512759859e-19</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -471,7 +471,7 @@
         <v>0.1697700754744735</v>
       </c>
       <c r="D5">
-        <v>0.1697703529919921</v>
+        <v>2.188874988996542e-19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -485,7 +485,7 @@
         <v>0.2390017860881791</v>
       </c>
       <c r="D6">
-        <v>0.2390020959213678</v>
+        <v>8.29629462328943e-19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -499,7 +499,7 @@
         <v>0.09744088543812593</v>
       </c>
       <c r="D7">
-        <v>0.09744157541012331</v>
+        <v>0.3077857311009995</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -513,7 +513,7 @@
         <v>0.345200271122541</v>
       </c>
       <c r="D8">
-        <v>0.3451999843863293</v>
+        <v>0.01202188747282855</v>
       </c>
     </row>
   </sheetData>

--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -426,10 +426,10 @@
         <v>0.3</v>
       </c>
       <c r="C2">
-        <v>3.876022766635678e-18</v>
+        <v>2.927345865710862e-18</v>
       </c>
       <c r="D2">
-        <v>0.3467746958790734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -440,10 +440,10 @@
         <v>0.2</v>
       </c>
       <c r="C3">
-        <v>0.02124815174069435</v>
+        <v>0.02124717618409318</v>
       </c>
       <c r="D3">
-        <v>0.3334176855470986</v>
+        <v>0.02124715427314639</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -454,10 +454,10 @@
         <v>0.15</v>
       </c>
       <c r="C4">
-        <v>0.1273388301359862</v>
+        <v>0.1273382014015918</v>
       </c>
       <c r="D4">
-        <v>7.531898512759859e-19</v>
+        <v>0.1273388940376063</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -468,10 +468,10 @@
         <v>0.1</v>
       </c>
       <c r="C5">
-        <v>0.1697700754744735</v>
+        <v>0.1697704453391681</v>
       </c>
       <c r="D5">
-        <v>2.188874988996542e-19</v>
+        <v>0.1697699223641621</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -482,10 +482,10 @@
         <v>0.1</v>
       </c>
       <c r="C6">
-        <v>0.2390017860881791</v>
+        <v>0.2390021039874927</v>
       </c>
       <c r="D6">
-        <v>8.29629462328943e-19</v>
+        <v>0.2390017823104368</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -496,10 +496,10 @@
         <v>0.05</v>
       </c>
       <c r="C7">
-        <v>0.09744088543812593</v>
+        <v>0.09744142026537399</v>
       </c>
       <c r="D7">
-        <v>0.3077857311009995</v>
+        <v>0.09744136897287403</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -510,10 +510,10 @@
         <v>0.1</v>
       </c>
       <c r="C8">
-        <v>0.345200271122541</v>
+        <v>0.34520065282228</v>
       </c>
       <c r="D8">
-        <v>0.01202188747282855</v>
+        <v>0.3452008780417743</v>
       </c>
     </row>
   </sheetData>

--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Initial Weights</t>
   </si>
@@ -25,25 +25,28 @@
     <t>Opt Portfolio with View</t>
   </si>
   <si>
+    <t>thanos</t>
+  </si>
+  <si>
     <t>PARSTEI LX Equity</t>
   </si>
   <si>
-    <t>FLOT FP Equity</t>
-  </si>
-  <si>
-    <t>SX5EEX GY Equity</t>
-  </si>
-  <si>
-    <t>SPY US Equity</t>
-  </si>
-  <si>
-    <t>LFGGBDR LX Equity</t>
-  </si>
-  <si>
-    <t>EUN5 GY Equity</t>
-  </si>
-  <si>
-    <t>EUNH GY Equity</t>
+    <t>LEF1TREU Index</t>
+  </si>
+  <si>
+    <t>SX5R Index</t>
+  </si>
+  <si>
+    <t>SXUSR Index</t>
+  </si>
+  <si>
+    <t>BEGCGA Index</t>
+  </si>
+  <si>
+    <t>LEC4TREU Index</t>
+  </si>
+  <si>
+    <t>LEATTREU Index</t>
   </si>
 </sst>
 </file>
@@ -401,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,10 +429,10 @@
         <v>0.3</v>
       </c>
       <c r="C2">
-        <v>2.927345865710862e-18</v>
+        <v>0.03595218056188074</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.0359521717459174</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -440,10 +443,10 @@
         <v>0.2</v>
       </c>
       <c r="C3">
-        <v>0.02124717618409318</v>
+        <v>0.1909876858665356</v>
       </c>
       <c r="D3">
-        <v>0.02124715427314639</v>
+        <v>0.1909876982079544</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -454,10 +457,10 @@
         <v>0.15</v>
       </c>
       <c r="C4">
-        <v>0.1273382014015918</v>
+        <v>0.1838869452973091</v>
       </c>
       <c r="D4">
-        <v>0.1273388940376063</v>
+        <v>0.1838869262343344</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -468,10 +471,10 @@
         <v>0.1</v>
       </c>
       <c r="C5">
-        <v>0.1697704453391681</v>
+        <v>0.07553560992936761</v>
       </c>
       <c r="D5">
-        <v>0.1697699223641621</v>
+        <v>0.0755356137722062</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -482,10 +485,10 @@
         <v>0.1</v>
       </c>
       <c r="C6">
-        <v>0.2390021039874927</v>
+        <v>0.06451041465115818</v>
       </c>
       <c r="D6">
-        <v>0.2390017823104368</v>
+        <v>0.0645103867352906</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -496,10 +499,10 @@
         <v>0.05</v>
       </c>
       <c r="C7">
-        <v>0.09744142026537399</v>
+        <v>0.1114101465131827</v>
       </c>
       <c r="D7">
-        <v>0.09744136897287403</v>
+        <v>0.111410190157718</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -507,13 +510,27 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="C8">
-        <v>0.34520065282228</v>
+        <v>0.1699542531985195</v>
       </c>
       <c r="D8">
-        <v>0.3452008780417743</v>
+        <v>0.1699542547564113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0.05</v>
+      </c>
+      <c r="C9">
+        <v>0.1677627639820466</v>
+      </c>
+      <c r="D9">
+        <v>0.1677627583901678</v>
       </c>
     </row>
   </sheetData>

--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Initial Weights</t>
   </si>
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t>Opt Portfolio with View</t>
-  </si>
-  <si>
-    <t>thanos</t>
   </si>
   <si>
     <t>PARSTEI LX Equity</t>
@@ -404,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,10 +426,10 @@
         <v>0.3</v>
       </c>
       <c r="C2">
-        <v>0.03595218056188074</v>
+        <v>2.927345865710862e-18</v>
       </c>
       <c r="D2">
-        <v>0.0359521717459174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -443,10 +440,10 @@
         <v>0.2</v>
       </c>
       <c r="C3">
-        <v>0.1909876858665356</v>
+        <v>0.02124717618409318</v>
       </c>
       <c r="D3">
-        <v>0.1909876982079544</v>
+        <v>0.02124715427314639</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -457,10 +454,10 @@
         <v>0.15</v>
       </c>
       <c r="C4">
-        <v>0.1838869452973091</v>
+        <v>0.1273382014015918</v>
       </c>
       <c r="D4">
-        <v>0.1838869262343344</v>
+        <v>0.1273388940376063</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -471,10 +468,10 @@
         <v>0.1</v>
       </c>
       <c r="C5">
-        <v>0.07553560992936761</v>
+        <v>0.1697704453391681</v>
       </c>
       <c r="D5">
-        <v>0.0755356137722062</v>
+        <v>0.1697699223641621</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -485,10 +482,10 @@
         <v>0.1</v>
       </c>
       <c r="C6">
-        <v>0.06451041465115818</v>
+        <v>0.2390021039874927</v>
       </c>
       <c r="D6">
-        <v>0.0645103867352906</v>
+        <v>0.2390017823104368</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -499,10 +496,10 @@
         <v>0.05</v>
       </c>
       <c r="C7">
-        <v>0.1114101465131827</v>
+        <v>0.09744142026537399</v>
       </c>
       <c r="D7">
-        <v>0.111410190157718</v>
+        <v>0.09744136897287403</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -510,27 +507,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C8">
-        <v>0.1699542531985195</v>
+        <v>0.34520065282228</v>
       </c>
       <c r="D8">
-        <v>0.1699542547564113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>0.05</v>
-      </c>
-      <c r="C9">
-        <v>0.1677627639820466</v>
-      </c>
-      <c r="D9">
-        <v>0.1677627583901678</v>
+        <v>0.3452008780417743</v>
       </c>
     </row>
   </sheetData>

--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -423,13 +423,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>2.927345865710862e-18</v>
+        <v>0.004410933559855143</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.0044109444566214</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -437,13 +437,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02124717618409318</v>
+        <v>0.004352063267490375</v>
       </c>
       <c r="D3">
-        <v>0.02124715427314639</v>
+        <v>0.004352065352112043</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -451,13 +451,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1273382014015918</v>
+        <v>0.3011493610815403</v>
       </c>
       <c r="D4">
-        <v>0.1273388940376063</v>
+        <v>0.3011490759015035</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -465,13 +465,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="C5">
-        <v>0.1697704453391681</v>
+        <v>0.678644535406819</v>
       </c>
       <c r="D5">
-        <v>0.1697699223641621</v>
+        <v>0.6786447681426276</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -479,13 +479,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="C6">
-        <v>0.2390021039874927</v>
+        <v>0.002944360464062921</v>
       </c>
       <c r="D6">
-        <v>0.2390017823104368</v>
+        <v>0.00294437259506601</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -493,13 +493,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.09744142026537399</v>
+        <v>0.004242739850924624</v>
       </c>
       <c r="D7">
-        <v>0.09744136897287403</v>
+        <v>0.00424274542942027</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -507,13 +507,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.34520065282228</v>
+        <v>0.004256006369307748</v>
       </c>
       <c r="D8">
-        <v>0.3452008780417743</v>
+        <v>0.004256028122649053</v>
       </c>
     </row>
   </sheetData>

--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -423,13 +423,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.448</v>
       </c>
       <c r="C2">
-        <v>0.004410933559855143</v>
+        <v>0.1295008802254504</v>
       </c>
       <c r="D2">
-        <v>0.0044109444566214</v>
+        <v>0.1295008734111448</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -440,10 +440,10 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.004352063267490375</v>
+        <v>0.1316564287853225</v>
       </c>
       <c r="D3">
-        <v>0.004352065352112043</v>
+        <v>0.1316564464375971</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3011493610815403</v>
+        <v>0.004124283841947814</v>
       </c>
       <c r="D4">
-        <v>0.3011490759015035</v>
+        <v>0.004124274747723301</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -465,13 +465,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.678644535406819</v>
+        <v>1.061149016206822e-05</v>
       </c>
       <c r="D5">
-        <v>0.6786447681426276</v>
+        <v>1.060878357728654e-05</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -479,13 +479,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.002944360464062921</v>
+        <v>0.006724954885701882</v>
       </c>
       <c r="D6">
-        <v>0.00294437259506601</v>
+        <v>0.006724945978417399</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -493,13 +493,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.346</v>
       </c>
       <c r="C7">
-        <v>0.004242739850924624</v>
+        <v>0.1327159474968135</v>
       </c>
       <c r="D7">
-        <v>0.00424274542942027</v>
+        <v>0.1327159446342338</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -507,13 +507,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.204</v>
       </c>
       <c r="C8">
-        <v>0.004256006369307748</v>
+        <v>0.5952668932746017</v>
       </c>
       <c r="D8">
-        <v>0.004256028122649053</v>
+        <v>0.5952669060073064</v>
       </c>
     </row>
   </sheetData>

--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -423,13 +423,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.448</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1295008802254504</v>
+        <v>0.006839030729844959</v>
       </c>
       <c r="D2">
-        <v>0.1295008734111448</v>
+        <v>0.006839037839526434</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -440,10 +440,10 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1316564287853225</v>
+        <v>0.006063485726328331</v>
       </c>
       <c r="D3">
-        <v>0.1316564464375971</v>
+        <v>0.006063540109570382</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -451,13 +451,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.544</v>
       </c>
       <c r="C4">
-        <v>0.004124283841947814</v>
+        <v>0.3390115951598157</v>
       </c>
       <c r="D4">
-        <v>0.004124274747723301</v>
+        <v>0.3390118971693208</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -468,10 +468,10 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.061149016206822e-05</v>
+        <v>0.006451647308810614</v>
       </c>
       <c r="D5">
-        <v>1.060878357728654e-05</v>
+        <v>0.006451308842870747</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -479,13 +479,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="C6">
-        <v>0.006724954885701882</v>
+        <v>0.6161722174184725</v>
       </c>
       <c r="D6">
-        <v>0.006724945978417399</v>
+        <v>0.6161721445573383</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -496,10 +496,10 @@
         <v>0.346</v>
       </c>
       <c r="C7">
-        <v>0.1327159474968135</v>
+        <v>0.006396234510063269</v>
       </c>
       <c r="D7">
-        <v>0.1327159446342338</v>
+        <v>0.006396328371717159</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -507,13 +507,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.204</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.5952668932746017</v>
+        <v>0.01906578914666444</v>
       </c>
       <c r="D8">
-        <v>0.5952669060073064</v>
+        <v>0.0190657431096562</v>
       </c>
     </row>
   </sheetData>

--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -426,10 +426,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.006839030729844959</v>
+        <v>0.009107798753669715</v>
       </c>
       <c r="D2">
-        <v>0.006839037839526434</v>
+        <v>0.009107790128166187</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -440,10 +440,10 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.006063485726328331</v>
+        <v>0.009295874146037157</v>
       </c>
       <c r="D3">
-        <v>0.006063540109570382</v>
+        <v>0.009295884517358225</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -451,13 +451,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.544</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3390115951598157</v>
+        <v>0.4522932122695642</v>
       </c>
       <c r="D4">
-        <v>0.3390118971693208</v>
+        <v>0.4522932116590938</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -465,13 +465,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="C5">
-        <v>0.006451647308810614</v>
+        <v>0.5030758649096663</v>
       </c>
       <c r="D5">
-        <v>0.006451308842870747</v>
+        <v>0.5030758693417202</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -479,13 +479,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.3</v>
+        <v>0.332</v>
       </c>
       <c r="C6">
-        <v>0.6161722174184725</v>
+        <v>0.007816705506625485</v>
       </c>
       <c r="D6">
-        <v>0.6161721445573383</v>
+        <v>0.007816689436843759</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -493,13 +493,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.346</v>
+        <v>0.342</v>
       </c>
       <c r="C7">
-        <v>0.006396234510063269</v>
+        <v>0.009388361714326349</v>
       </c>
       <c r="D7">
-        <v>0.006396328371717159</v>
+        <v>0.009388362662918238</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -507,13 +507,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.262</v>
       </c>
       <c r="C8">
-        <v>0.01906578914666444</v>
+        <v>0.00902218270011074</v>
       </c>
       <c r="D8">
-        <v>0.0190657431096562</v>
+        <v>0.009022192253899598</v>
       </c>
     </row>
   </sheetData>

--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -423,13 +423,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C2">
-        <v>0.009107798753669715</v>
+        <v>0.1535818494881181</v>
       </c>
       <c r="D2">
-        <v>0.009107790128166187</v>
+        <v>0.1535818517403586</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -437,13 +437,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C3">
-        <v>0.009295874146037157</v>
+        <v>0.1522119935248375</v>
       </c>
       <c r="D3">
-        <v>0.009295884517358225</v>
+        <v>0.1522119952635631</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -451,13 +451,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C4">
-        <v>0.4522932122695642</v>
+        <v>0.1315750994568295</v>
       </c>
       <c r="D4">
-        <v>0.4522932116590938</v>
+        <v>0.1315750985927389</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -465,13 +465,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.36</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C5">
-        <v>0.5030758649096663</v>
+        <v>0.1316127757455861</v>
       </c>
       <c r="D5">
-        <v>0.5030758693417202</v>
+        <v>0.1316127758639908</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -479,13 +479,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.332</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C6">
-        <v>0.007816705506625485</v>
+        <v>0.1315393275253767</v>
       </c>
       <c r="D6">
-        <v>0.007816689436843759</v>
+        <v>0.1315393293010641</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -493,13 +493,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.342</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C7">
-        <v>0.009388361714326349</v>
+        <v>0.1495287230745071</v>
       </c>
       <c r="D7">
-        <v>0.009388362662918238</v>
+        <v>0.149528721328849</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -507,13 +507,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.262</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C8">
-        <v>0.00902218270011074</v>
+        <v>0.149950231184745</v>
       </c>
       <c r="D8">
-        <v>0.009022192253899598</v>
+        <v>0.1499502279094355</v>
       </c>
     </row>
   </sheetData>

--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -429,7 +429,7 @@
         <v>0.1535818494881181</v>
       </c>
       <c r="D2">
-        <v>0.1535818517403586</v>
+        <v>0.05951570120983125</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -443,7 +443,7 @@
         <v>0.1522119935248375</v>
       </c>
       <c r="D3">
-        <v>0.1522119952635631</v>
+        <v>0.05987609487342284</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -457,7 +457,7 @@
         <v>0.1315750994568295</v>
       </c>
       <c r="D4">
-        <v>0.1315750985927389</v>
+        <v>0.009253613110167381</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -471,7 +471,7 @@
         <v>0.1316127757455861</v>
       </c>
       <c r="D5">
-        <v>0.1316127758639908</v>
+        <v>0.06345261981704933</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -485,7 +485,7 @@
         <v>0.1315393275253767</v>
       </c>
       <c r="D6">
-        <v>0.1315393293010641</v>
+        <v>0.02027509981001521</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -499,7 +499,7 @@
         <v>0.1495287230745071</v>
       </c>
       <c r="D7">
-        <v>0.149528721328849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -513,7 +513,7 @@
         <v>0.149950231184745</v>
       </c>
       <c r="D8">
-        <v>0.1499502279094355</v>
+        <v>0.787626871179514</v>
       </c>
     </row>
   </sheetData>

--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -25,25 +25,25 @@
     <t>Opt Portfolio with View</t>
   </si>
   <si>
-    <t>PARSTEI LX Equity</t>
-  </si>
-  <si>
-    <t>LEF1TREU Index</t>
-  </si>
-  <si>
-    <t>SX5R Index</t>
-  </si>
-  <si>
-    <t>SXUSR Index</t>
-  </si>
-  <si>
-    <t>BEGCGA Index</t>
-  </si>
-  <si>
-    <t>LEC4TREU Index</t>
-  </si>
-  <si>
-    <t>LEATTREU Index</t>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>EU Flot</t>
+  </si>
+  <si>
+    <t>EU Equity</t>
+  </si>
+  <si>
+    <t>US Equity</t>
+  </si>
+  <si>
+    <t>Greek Gov</t>
+  </si>
+  <si>
+    <t>EU Corps</t>
+  </si>
+  <si>
+    <t>EU Gov</t>
   </si>
 </sst>
 </file>
@@ -429,7 +429,7 @@
         <v>0.1535818494881181</v>
       </c>
       <c r="D2">
-        <v>0.05951570120983125</v>
+        <v>0.1535818517403586</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -443,7 +443,7 @@
         <v>0.1522119935248375</v>
       </c>
       <c r="D3">
-        <v>0.05987609487342284</v>
+        <v>0.1522119952635631</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -457,7 +457,7 @@
         <v>0.1315750994568295</v>
       </c>
       <c r="D4">
-        <v>0.009253613110167381</v>
+        <v>0.1315750985927389</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -471,7 +471,7 @@
         <v>0.1316127757455861</v>
       </c>
       <c r="D5">
-        <v>0.06345261981704933</v>
+        <v>0.1316127758639908</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -485,7 +485,7 @@
         <v>0.1315393275253767</v>
       </c>
       <c r="D6">
-        <v>0.02027509981001521</v>
+        <v>0.1315393293010641</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -499,7 +499,7 @@
         <v>0.1495287230745071</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.149528721328849</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -513,7 +513,7 @@
         <v>0.149950231184745</v>
       </c>
       <c r="D8">
-        <v>0.787626871179514</v>
+        <v>0.1499502279094355</v>
       </c>
     </row>
   </sheetData>

--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -423,13 +423,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.1428571428571428</v>
+        <v>0.1</v>
       </c>
       <c r="C2">
-        <v>0.1535818494881181</v>
+        <v>0.1272849253007465</v>
       </c>
       <c r="D2">
-        <v>0.1535818517403586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -437,13 +437,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.1428571428571428</v>
+        <v>0.05</v>
       </c>
       <c r="C3">
-        <v>0.1522119935248375</v>
+        <v>0.1272908224383453</v>
       </c>
       <c r="D3">
-        <v>0.1522119952635631</v>
+        <v>0.1163737759267746</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -451,13 +451,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.1428571428571428</v>
+        <v>0.1</v>
       </c>
       <c r="C4">
-        <v>0.1315750994568295</v>
+        <v>0.1796008618156742</v>
       </c>
       <c r="D4">
-        <v>0.1315750985927389</v>
+        <v>0.2176989893803725</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -465,13 +465,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.1428571428571428</v>
+        <v>0.1</v>
       </c>
       <c r="C5">
-        <v>0.1316127757455861</v>
+        <v>0.1722192567577291</v>
       </c>
       <c r="D5">
-        <v>0.1316127758639908</v>
+        <v>0.1949831861608918</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -479,13 +479,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.1428571428571428</v>
+        <v>0.15</v>
       </c>
       <c r="C6">
-        <v>0.1315393275253767</v>
+        <v>0.1389108338040999</v>
       </c>
       <c r="D6">
-        <v>0.1315393293010641</v>
+        <v>0.07649963773174576</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -493,13 +493,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.1428571428571428</v>
+        <v>0.2</v>
       </c>
       <c r="C7">
-        <v>0.1495287230745071</v>
+        <v>0.1272876650722808</v>
       </c>
       <c r="D7">
-        <v>0.149528721328849</v>
+        <v>0.223703413766908</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -507,13 +507,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.1428571428571428</v>
+        <v>0.3</v>
       </c>
       <c r="C8">
-        <v>0.149950231184745</v>
+        <v>0.1274056348111242</v>
       </c>
       <c r="D8">
-        <v>0.1499502279094355</v>
+        <v>0.1707409970333074</v>
       </c>
     </row>
   </sheetData>

--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -423,13 +423,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.1</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C2">
-        <v>0.1272849253007465</v>
+        <v>0.1521569877763614</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.1521569873121236</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -437,13 +437,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.05</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C3">
-        <v>0.1272908224383453</v>
+        <v>0.1514628155394849</v>
       </c>
       <c r="D3">
-        <v>0.1163737759267746</v>
+        <v>0.1514628154088595</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -451,13 +451,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.1</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C4">
-        <v>0.1796008618156742</v>
+        <v>0.1307254289492208</v>
       </c>
       <c r="D4">
-        <v>0.2176989893803725</v>
+        <v>0.1307254287537006</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -465,13 +465,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.1</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C5">
-        <v>0.1722192567577291</v>
+        <v>0.1307357372099624</v>
       </c>
       <c r="D5">
-        <v>0.1949831861608918</v>
+        <v>0.130735737147938</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -479,13 +479,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.15</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C6">
-        <v>0.1389108338040999</v>
+        <v>0.1344673604747327</v>
       </c>
       <c r="D6">
-        <v>0.07649963773174576</v>
+        <v>0.1344673608767446</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -493,13 +493,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.2</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C7">
-        <v>0.1272876650722808</v>
+        <v>0.1501043822555428</v>
       </c>
       <c r="D7">
-        <v>0.223703413766908</v>
+        <v>0.1501043828279517</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -507,13 +507,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.3</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C8">
-        <v>0.1274056348111242</v>
+        <v>0.1503472877946951</v>
       </c>
       <c r="D8">
-        <v>0.1707409970333074</v>
+        <v>0.150347287672682</v>
       </c>
     </row>
   </sheetData>

--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -423,13 +423,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.1428571428571428</v>
+        <v>0.1</v>
       </c>
       <c r="C2">
-        <v>0.1521569877763614</v>
+        <v>0.1272849257335129</v>
       </c>
       <c r="D2">
-        <v>0.1521569873121236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -437,13 +437,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.1428571428571428</v>
+        <v>0.05</v>
       </c>
       <c r="C3">
-        <v>0.1514628155394849</v>
+        <v>0.1272908228833229</v>
       </c>
       <c r="D3">
-        <v>0.1514628154088595</v>
+        <v>0.116373596538509</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -451,13 +451,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.1428571428571428</v>
+        <v>0.1</v>
       </c>
       <c r="C4">
-        <v>0.1307254289492208</v>
+        <v>0.1796008644373881</v>
       </c>
       <c r="D4">
-        <v>0.1307254287537006</v>
+        <v>0.2176989735329594</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -465,13 +465,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.1428571428571428</v>
+        <v>0.1</v>
       </c>
       <c r="C5">
-        <v>0.1307357372099624</v>
+        <v>0.1722192554824873</v>
       </c>
       <c r="D5">
-        <v>0.130735737147938</v>
+        <v>0.1949832312352888</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -479,13 +479,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.1428571428571428</v>
+        <v>0.15</v>
       </c>
       <c r="C6">
-        <v>0.1344673604747327</v>
+        <v>0.138910830905883</v>
       </c>
       <c r="D6">
-        <v>0.1344673608767446</v>
+        <v>0.07649952086827418</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -493,13 +493,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.1428571428571428</v>
+        <v>0.2</v>
       </c>
       <c r="C7">
-        <v>0.1501043822555428</v>
+        <v>0.1272876666956859</v>
       </c>
       <c r="D7">
-        <v>0.1501043828279517</v>
+        <v>0.2237036221345661</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -507,13 +507,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.1428571428571428</v>
+        <v>0.3</v>
       </c>
       <c r="C8">
-        <v>0.1503472877946951</v>
+        <v>0.1274056338617202</v>
       </c>
       <c r="D8">
-        <v>0.150347287672682</v>
+        <v>0.1707410556904025</v>
       </c>
     </row>
   </sheetData>

--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -429,7 +429,7 @@
         <v>0.1272849257335129</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.1272849253844004</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -443,7 +443,7 @@
         <v>0.1272908228833229</v>
       </c>
       <c r="D3">
-        <v>0.116373596538509</v>
+        <v>0.1272908219143504</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -457,7 +457,7 @@
         <v>0.1796008644373881</v>
       </c>
       <c r="D4">
-        <v>0.2176989735329594</v>
+        <v>0.1796008640945683</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -471,7 +471,7 @@
         <v>0.1722192554824873</v>
       </c>
       <c r="D5">
-        <v>0.1949832312352888</v>
+        <v>0.1722192543128125</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -485,7 +485,7 @@
         <v>0.138910830905883</v>
       </c>
       <c r="D6">
-        <v>0.07649952086827418</v>
+        <v>0.1389108337282178</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -499,7 +499,7 @@
         <v>0.1272876666956859</v>
       </c>
       <c r="D7">
-        <v>0.2237036221345661</v>
+        <v>0.1272876666760212</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -513,7 +513,7 @@
         <v>0.1274056338617202</v>
       </c>
       <c r="D8">
-        <v>0.1707410556904025</v>
+        <v>0.1274056338896295</v>
       </c>
     </row>
   </sheetData>

--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -423,13 +423,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.1</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C2">
-        <v>0.1272849257335129</v>
+        <v>0.1535818480114002</v>
       </c>
       <c r="D2">
-        <v>0.1272849253844004</v>
+        <v>0.1535818492496737</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -437,13 +437,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.05</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C3">
-        <v>0.1272908228833229</v>
+        <v>0.1522119943432627</v>
       </c>
       <c r="D3">
-        <v>0.1272908219143504</v>
+        <v>0.1522119928421055</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -451,13 +451,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.1</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C4">
-        <v>0.1796008644373881</v>
+        <v>0.1315750976089232</v>
       </c>
       <c r="D4">
-        <v>0.1796008640945683</v>
+        <v>0.1315750984268254</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -465,13 +465,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.1</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C5">
-        <v>0.1722192554824873</v>
+        <v>0.1316127775234491</v>
       </c>
       <c r="D5">
-        <v>0.1722192543128125</v>
+        <v>0.1316127770923149</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -479,13 +479,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.15</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C6">
-        <v>0.138910830905883</v>
+        <v>0.1315393276269073</v>
       </c>
       <c r="D6">
-        <v>0.1389108337282178</v>
+        <v>0.1315393269293997</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -493,13 +493,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.2</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C7">
-        <v>0.1272876666956859</v>
+        <v>0.1495287225222207</v>
       </c>
       <c r="D7">
-        <v>0.1272876666760212</v>
+        <v>0.1495287223521467</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -507,13 +507,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.3</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C8">
-        <v>0.1274056338617202</v>
+        <v>0.1499502323638368</v>
       </c>
       <c r="D8">
-        <v>0.1274056338896295</v>
+        <v>0.1499502331075342</v>
       </c>
     </row>
   </sheetData>

--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -426,10 +426,10 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C2">
-        <v>0.1535818480114002</v>
+        <v>0.03398908557859916</v>
       </c>
       <c r="D2">
-        <v>0.1535818492496737</v>
+        <v>0.03398899316178236</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -440,10 +440,10 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C3">
-        <v>0.1522119943432627</v>
+        <v>0.03326733264542253</v>
       </c>
       <c r="D3">
-        <v>0.1522119928421055</v>
+        <v>0.03326733196496505</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -451,13 +451,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.1428571428571428</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0.1315750976089232</v>
+        <v>0.09196051005819827</v>
       </c>
       <c r="D4">
-        <v>0.1315750984268254</v>
+        <v>0.09196052048333501</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -468,10 +468,10 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C5">
-        <v>0.1316127775234491</v>
+        <v>0.09359360785550738</v>
       </c>
       <c r="D5">
-        <v>0.1316127770923149</v>
+        <v>0.09359362526776671</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -482,10 +482,10 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C6">
-        <v>0.1315393276269073</v>
+        <v>0.6494120724745848</v>
       </c>
       <c r="D6">
-        <v>0.1315393269293997</v>
+        <v>0.64941204950374</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -496,10 +496,10 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C7">
-        <v>0.1495287225222207</v>
+        <v>0.03665620485808728</v>
       </c>
       <c r="D7">
-        <v>0.1495287223521467</v>
+        <v>0.03665631947025359</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -510,10 +510,10 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C8">
-        <v>0.1499502323638368</v>
+        <v>0.06112118652960059</v>
       </c>
       <c r="D8">
-        <v>0.1499502331075342</v>
+        <v>0.06112116014815723</v>
       </c>
     </row>
   </sheetData>

--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -426,10 +426,10 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C2">
-        <v>0.03398908557859916</v>
+        <v>0.0972481420361959</v>
       </c>
       <c r="D2">
-        <v>0.03398899316178236</v>
+        <v>0.09724811614937853</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -440,10 +440,10 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C3">
-        <v>0.03326733264542253</v>
+        <v>0.09649764182944713</v>
       </c>
       <c r="D3">
-        <v>0.03326733196496505</v>
+        <v>0.09649766910532863</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -451,13 +451,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.42</v>
       </c>
       <c r="C4">
-        <v>0.09196051005819827</v>
+        <v>0.1473185240024383</v>
       </c>
       <c r="D4">
-        <v>0.09196052048333501</v>
+        <v>0.1473185371538656</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -468,10 +468,10 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C5">
-        <v>0.09359360785550738</v>
+        <v>0.09898494248164209</v>
       </c>
       <c r="D5">
-        <v>0.09359362526776671</v>
+        <v>0.09898493358485361</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -482,10 +482,10 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C6">
-        <v>0.6494120724745848</v>
+        <v>0.3482936652637426</v>
       </c>
       <c r="D6">
-        <v>0.64941204950374</v>
+        <v>0.3482936594876294</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -496,10 +496,10 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C7">
-        <v>0.03665620485808728</v>
+        <v>0.09828707602528544</v>
       </c>
       <c r="D7">
-        <v>0.03665631947025359</v>
+        <v>0.09828711179714611</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -510,10 +510,10 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C8">
-        <v>0.06112118652960059</v>
+        <v>0.1133700083612487</v>
       </c>
       <c r="D8">
-        <v>0.06112116014815723</v>
+        <v>0.1133699727217983</v>
       </c>
     </row>
   </sheetData>

--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -426,10 +426,10 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C2">
-        <v>0.0972481420361959</v>
+        <v>0.1535818494881181</v>
       </c>
       <c r="D2">
-        <v>0.09724811614937853</v>
+        <v>0.1535818517403586</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -440,10 +440,10 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C3">
-        <v>0.09649764182944713</v>
+        <v>0.1522119935248375</v>
       </c>
       <c r="D3">
-        <v>0.09649766910532863</v>
+        <v>0.1522119952635631</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -451,13 +451,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.42</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C4">
-        <v>0.1473185240024383</v>
+        <v>0.1315750994568295</v>
       </c>
       <c r="D4">
-        <v>0.1473185371538656</v>
+        <v>0.1315750985927389</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -468,10 +468,10 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C5">
-        <v>0.09898494248164209</v>
+        <v>0.1316127757455861</v>
       </c>
       <c r="D5">
-        <v>0.09898493358485361</v>
+        <v>0.1316127758639908</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -482,10 +482,10 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C6">
-        <v>0.3482936652637426</v>
+        <v>0.1315393275253767</v>
       </c>
       <c r="D6">
-        <v>0.3482936594876294</v>
+        <v>0.1315393293010641</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -496,10 +496,10 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C7">
-        <v>0.09828707602528544</v>
+        <v>0.1495287230745071</v>
       </c>
       <c r="D7">
-        <v>0.09828711179714611</v>
+        <v>0.149528721328849</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -510,10 +510,10 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C8">
-        <v>0.1133700083612487</v>
+        <v>0.149950231184745</v>
       </c>
       <c r="D8">
-        <v>0.1133699727217983</v>
+        <v>0.1499502279094355</v>
       </c>
     </row>
   </sheetData>

--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -1,75 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Initial Weights</t>
-  </si>
-  <si>
-    <t>Opt Portfolio</t>
-  </si>
-  <si>
-    <t>Opt Portfolio with View</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>EU Flot</t>
-  </si>
-  <si>
-    <t>EU Equity</t>
-  </si>
-  <si>
-    <t>US Equity</t>
-  </si>
-  <si>
-    <t>Greek Gov</t>
-  </si>
-  <si>
-    <t>EU Corps</t>
-  </si>
-  <si>
-    <t>EU Gov</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -84,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -103,16 +57,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -400,123 +421,149 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="C2">
-        <v>0.1535818494881181</v>
-      </c>
-      <c r="D2">
-        <v>0.1535818517403586</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="C3">
-        <v>0.1522119935248375</v>
-      </c>
-      <c r="D3">
-        <v>0.1522119952635631</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="C4">
-        <v>0.1315750994568295</v>
-      </c>
-      <c r="D4">
-        <v>0.1315750985927389</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="C5">
-        <v>0.1316127757455861</v>
-      </c>
-      <c r="D5">
-        <v>0.1316127758639908</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="C6">
-        <v>0.1315393275253767</v>
-      </c>
-      <c r="D6">
-        <v>0.1315393293010641</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="C7">
-        <v>0.1495287230745071</v>
-      </c>
-      <c r="D7">
-        <v>0.149528721328849</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="C8">
-        <v>0.149950231184745</v>
-      </c>
-      <c r="D8">
-        <v>0.1499502279094355</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Initial Weights</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Opt Portfolio</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Opt Portfolio with View</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1535818504135633</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1535818512568701</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>EU Flot</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1522119927096501</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1522119933428666</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>EU Equity</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.131575098567263</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.131575099332171</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>US Equity</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.13161277638873</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1316127768341236</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Greek Gov</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.131539328051003</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1315393259675999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>EU Corps</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1495287229867142</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.149528723519125</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>EU Gov</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1499502308830764</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1499502297472438</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -464,7 +464,7 @@
         <v>0.1535818504135633</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1535818512568701</v>
+        <v>5.075712372040022e-17</v>
       </c>
     </row>
     <row r="3">
@@ -480,7 +480,7 @@
         <v>0.1522119927096501</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1522119933428666</v>
+        <v>6.175624517019239e-17</v>
       </c>
     </row>
     <row r="4">
@@ -496,7 +496,7 @@
         <v>0.131575098567263</v>
       </c>
       <c r="D4" t="n">
-        <v>0.131575099332171</v>
+        <v>0.1389898938418274</v>
       </c>
     </row>
     <row r="5">
@@ -512,7 +512,7 @@
         <v>0.13161277638873</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1316127768341236</v>
+        <v>0.131042139217673</v>
       </c>
     </row>
     <row r="6">
@@ -528,7 +528,7 @@
         <v>0.131539328051003</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1315393259675999</v>
+        <v>0.09787673297163955</v>
       </c>
     </row>
     <row r="7">
@@ -544,7 +544,7 @@
         <v>0.1495287229867142</v>
       </c>
       <c r="D7" t="n">
-        <v>0.149528723519125</v>
+        <v>0.6320912339688598</v>
       </c>
     </row>
     <row r="8">
@@ -560,7 +560,7 @@
         <v>0.1499502308830764</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1499502297472438</v>
+        <v>6.24064294285224e-17</v>
       </c>
     </row>
   </sheetData>

--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -464,7 +464,7 @@
         <v>0.1535818504135633</v>
       </c>
       <c r="D2" t="n">
-        <v>5.075712372040022e-17</v>
+        <v>0.1535818512568701</v>
       </c>
     </row>
     <row r="3">
@@ -480,7 +480,7 @@
         <v>0.1522119927096501</v>
       </c>
       <c r="D3" t="n">
-        <v>6.175624517019239e-17</v>
+        <v>0.1522119933428666</v>
       </c>
     </row>
     <row r="4">
@@ -496,7 +496,7 @@
         <v>0.131575098567263</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1389898938418274</v>
+        <v>0.131575099332171</v>
       </c>
     </row>
     <row r="5">
@@ -512,7 +512,7 @@
         <v>0.13161277638873</v>
       </c>
       <c r="D5" t="n">
-        <v>0.131042139217673</v>
+        <v>0.1316127768341236</v>
       </c>
     </row>
     <row r="6">
@@ -528,7 +528,7 @@
         <v>0.131539328051003</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09787673297163955</v>
+        <v>0.1315393259675999</v>
       </c>
     </row>
     <row r="7">
@@ -544,7 +544,7 @@
         <v>0.1495287229867142</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6320912339688598</v>
+        <v>0.149528723519125</v>
       </c>
     </row>
     <row r="8">
@@ -560,7 +560,7 @@
         <v>0.1499502308830764</v>
       </c>
       <c r="D8" t="n">
-        <v>6.24064294285224e-17</v>
+        <v>0.1499502297472438</v>
       </c>
     </row>
   </sheetData>

--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -464,7 +464,7 @@
         <v>0.1535818504135633</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1535818512568701</v>
+        <v>0.0004904227247809496</v>
       </c>
     </row>
     <row r="3">
@@ -480,7 +480,7 @@
         <v>0.1522119927096501</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1522119933428666</v>
+        <v>1.923671547856839e-17</v>
       </c>
     </row>
     <row r="4">
@@ -496,7 +496,7 @@
         <v>0.131575098567263</v>
       </c>
       <c r="D4" t="n">
-        <v>0.131575099332171</v>
+        <v>0.05740214944097932</v>
       </c>
     </row>
     <row r="5">
@@ -512,7 +512,7 @@
         <v>0.13161277638873</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1316127768341236</v>
+        <v>0.04284130731152905</v>
       </c>
     </row>
     <row r="6">
@@ -528,7 +528,7 @@
         <v>0.131539328051003</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1315393259675999</v>
+        <v>0.0446838664608151</v>
       </c>
     </row>
     <row r="7">
@@ -544,7 +544,7 @@
         <v>0.1495287229867142</v>
       </c>
       <c r="D7" t="n">
-        <v>0.149528723519125</v>
+        <v>0.8545822540618956</v>
       </c>
     </row>
     <row r="8">
@@ -560,7 +560,7 @@
         <v>0.1499502308830764</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1499502297472438</v>
+        <v>5.24531075531447e-18</v>
       </c>
     </row>
   </sheetData>

--- a/Main/output.xlsx
+++ b/Main/output.xlsx
@@ -464,7 +464,7 @@
         <v>0.1535818504135633</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0004904227247809496</v>
+        <v>0.1535818512568701</v>
       </c>
     </row>
     <row r="3">
@@ -480,7 +480,7 @@
         <v>0.1522119927096501</v>
       </c>
       <c r="D3" t="n">
-        <v>1.923671547856839e-17</v>
+        <v>0.1522119933428666</v>
       </c>
     </row>
     <row r="4">
@@ -496,7 +496,7 @@
         <v>0.131575098567263</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05740214944097932</v>
+        <v>0.131575099332171</v>
       </c>
     </row>
     <row r="5">
@@ -512,7 +512,7 @@
         <v>0.13161277638873</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04284130731152905</v>
+        <v>0.1316127768341236</v>
       </c>
     </row>
     <row r="6">
@@ -528,7 +528,7 @@
         <v>0.131539328051003</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0446838664608151</v>
+        <v>0.1315393259675999</v>
       </c>
     </row>
     <row r="7">
@@ -544,7 +544,7 @@
         <v>0.1495287229867142</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8545822540618956</v>
+        <v>0.149528723519125</v>
       </c>
     </row>
     <row r="8">
@@ -560,7 +560,7 @@
         <v>0.1499502308830764</v>
       </c>
       <c r="D8" t="n">
-        <v>5.24531075531447e-18</v>
+        <v>0.1499502297472438</v>
       </c>
     </row>
   </sheetData>
